--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>File</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>📰</t>
+  </si>
+  <si>
+    <t>datacategorygroups/Global_Categories.datacategorygroup-meta.xml</t>
+  </si>
+  <si>
+    <t>DataCategoryGroup Global_Categories</t>
+  </si>
+  <si>
+    <t>datacategorygroups/Management.datacategorygroup-meta.xml</t>
+  </si>
+  <si>
+    <t>DataCategoryGroup Management</t>
   </si>
   <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
@@ -561,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
@@ -1075,6 +1087,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>File</t>
   </si>
@@ -49,34 +49,10 @@
     <t>📰</t>
   </si>
   <si>
-    <t>datacategorygroups/Global_Categories.datacategorygroup-meta.xml</t>
-  </si>
-  <si>
-    <t>DataCategoryGroup Global_Categories</t>
-  </si>
-  <si>
-    <t>datacategorygroups/Management.datacategorygroup-meta.xml</t>
-  </si>
-  <si>
-    <t>DataCategoryGroup Management</t>
-  </si>
-  <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
   </si>
   <si>
     <t>MessagingChannel Login_Help</t>
-  </si>
-  <si>
-    <t>messagingChannels/Omni_Messaging.messagingChannel-meta.xml</t>
-  </si>
-  <si>
-    <t>MessagingChannel Omni_Messaging</t>
-  </si>
-  <si>
-    <t>messagingChannels/Sales_Chat.messagingChannel-meta.xml</t>
-  </si>
-  <si>
-    <t>MessagingChannel Sales_Chat</t>
   </si>
   <si>
     <t>siteDotComSites/Help_Center1.site</t>
@@ -573,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
@@ -1047,86 +1023,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>File</t>
   </si>
@@ -49,12 +49,27 @@
     <t>📰</t>
   </si>
   <si>
+    <t>datacategorygroups/Management.datacategorygroup-meta.xml</t>
+  </si>
+  <si>
+    <t>DataCategoryGroup Management</t>
+  </si>
+  <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
   </si>
   <si>
     <t>MessagingChannel Login_Help</t>
   </si>
   <si>
+    <t>namedCredentials/a5rUo000002pB9xIAE_JakeDev2_005.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NamedCredential a5rUo000002pB9xIAE_JakeDev2_005</t>
+  </si>
+  <si>
     <t>siteDotComSites/Help_Center1.site</t>
   </si>
   <si>
@@ -173,6 +188,12 @@
   </si>
   <si>
     <t>VirtualWave Wave_Adoption.wdash</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -549,12 +570,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -647,14 +668,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -665,13 +683,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -685,13 +703,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -705,13 +723,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -725,13 +743,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -745,13 +763,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -765,13 +783,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -785,13 +803,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -805,13 +823,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -825,13 +843,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -845,13 +863,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -865,13 +883,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -885,13 +903,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -905,13 +923,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -925,13 +943,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -945,13 +963,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -965,13 +983,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -985,13 +1003,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1005,13 +1023,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1020,6 +1038,86 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="235">
   <si>
     <t>File</t>
   </si>
@@ -49,10 +49,19 @@
     <t>📰</t>
   </si>
   <si>
-    <t>datacategorygroups/Management.datacategorygroup-meta.xml</t>
-  </si>
-  <si>
-    <t>DataCategoryGroup Management</t>
+    <t>externalAIModels/HAWKING_FAQ_1762821435746.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1762907447221.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1762907774339.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1762907774370.externalAIModel-meta.xml</t>
   </si>
   <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
@@ -61,13 +70,520 @@
     <t>MessagingChannel Login_Help</t>
   </si>
   <si>
-    <t>namedCredentials/a5rUo000002pB9xIAE_JakeDev2_005.namedCredential-meta.xml</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>NamedCredential a5rUo000002pB9xIAE_JakeDev2_005</t>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Anypoint Integration.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Anypoint Integration</t>
+  </si>
+  <si>
+    <t>profiles/B2BMA Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile B2BMA Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Billing User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Billing User</t>
+  </si>
+  <si>
+    <t>profiles/Bot Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Bot Profile</t>
+  </si>
+  <si>
+    <t>profiles/Business Development.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Development</t>
+  </si>
+  <si>
+    <t>profiles/Call Center.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Call Center</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Client Onboarding - Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Onboarding - Admin</t>
+  </si>
+  <si>
+    <t>profiles/Client Onboarding - RM.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Onboarding - RM</t>
+  </si>
+  <si>
+    <t>profiles/Client Servicing Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Servicing Team</t>
+  </si>
+  <si>
+    <t>profiles/Compliance Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Compliance Manager</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Director of Operations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Director of Operations</t>
+  </si>
+  <si>
+    <t>profiles/Director of Sales.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Director of Sales</t>
+  </si>
+  <si>
+    <t>profiles/Distributions.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Distributions</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Agentforce_MIAW_1748035300267 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Agentforce_MIAW_1748035300267 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Agentforce_MIAW_1748385215843 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Agentforce_MIAW_1748385215843 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_CE_Chat_1692890394498 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_CE_Chat_1692890394498 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_CE_Chat_Moe_1693182845676 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_CE_Chat_Moe_1693182845676 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Login_Help_1697133738638 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Login_Help_1697133738638 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Login_Help_Simply_1700075140889 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Login_Help_Simply_1700075140889 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_1694183770479 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_1694183770479 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_CO_1696448547822 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_CO_1696448547822 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_Sallus_1700075448386 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_Sallus_1700075448386 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_Simply_1700076370188 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_Simply_1700076370188 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_QA_Login_1699666348585 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_QA_Login_1699666348585 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_QA_Messaging_1699974036493 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_QA_Messaging_1699974036493 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Sales_Chat_1697460991337 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Sales_Chat_1697460991337 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Sallus_Login_Chat_1700072925200 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Sallus_Login_Chat_1700072925200 Profile</t>
+  </si>
+  <si>
+    <t>profiles/Einstein Agent User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Einstein Agent User</t>
+  </si>
+  <si>
+    <t>profiles/External Apps Login User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Apps Login User</t>
+  </si>
+  <si>
+    <t>profiles/Finance Manager Lightning.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Finance Manager Lightning</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/IT.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile IT</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Incoming_SMS Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Incoming_SMS Profile</t>
+  </si>
+  <si>
+    <t>profiles/Leadership Lightning.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Leadership Lightning</t>
+  </si>
+  <si>
+    <t>profiles/Leadership.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Leadership</t>
+  </si>
+  <si>
+    <t>profiles/Learning %26 Development.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Learning %26 Development</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Client Onboarding.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Client Onboarding</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Compliance.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Compliance</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Saver User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Saver User</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Service Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Service Manager</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Service User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Service User</t>
+  </si>
+  <si>
+    <t>profiles/Marketing Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Marketing Team</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Master Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Master Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operations VP.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operations VP</t>
+  </si>
+  <si>
+    <t>profiles/Operations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operations</t>
+  </si>
+  <si>
+    <t>profiles/PSM Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile PSM Team</t>
+  </si>
+  <si>
+    <t>profiles/Paradigm Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Paradigm Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/Payroll Koncierge.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Payroll Koncierge</t>
+  </si>
+  <si>
+    <t>profiles/Payroll Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Payroll Team</t>
+  </si>
+  <si>
+    <t>profiles/People %26 Culture.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile People %26 Culture</t>
+  </si>
+  <si>
+    <t>profiles/Pre-chat Site Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Pre-chat Site Profile</t>
+  </si>
+  <si>
+    <t>profiles/Product Innovation Leadership.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Product Innovation Leadership</t>
+  </si>
+  <si>
+    <t>profiles/Product Innovation User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Product Innovation User</t>
+  </si>
+  <si>
+    <t>profiles/R%26W.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile R%26W</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Sales Coordinator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Coordinator</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Sales Team - Limited.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Team - Limited</t>
+  </si>
+  <si>
+    <t>profiles/Sales Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Team</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SalesforceIQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SalesforceIQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Saver Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Saver Manager</t>
+  </si>
+  <si>
+    <t>profiles/Simple Survey Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Simple Survey Profile</t>
+  </si>
+  <si>
+    <t>profiles/Simply Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Simply Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>profiles/StandardAul.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile StandardAul</t>
+  </si>
+  <si>
+    <t>profiles/Super System Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Super System Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Sys Dev Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sys Dev Admin</t>
+  </si>
+  <si>
+    <t>profiles/Transitions Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Transitions Team</t>
+  </si>
+  <si>
+    <t>profiles/Ubiquity Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Ubiquity Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/Zoom Webhooks Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Zoom Webhooks Profile</t>
+  </si>
+  <si>
+    <t>profiles/myubiquity Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile myubiquity Profile</t>
   </si>
   <si>
     <t>siteDotComSites/Help_Center1.site</t>
@@ -92,6 +608,12 @@
   </si>
   <si>
     <t>SiteDotCom Ubiquity_Help_Center1</t>
+  </si>
+  <si>
+    <t>translations/en_US.translation-meta.xml</t>
+  </si>
+  <si>
+    <t>Translations en_US</t>
   </si>
   <si>
     <t>wave/API.wdash</t>
@@ -570,12 +1092,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G116"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -632,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -646,16 +1168,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -666,13 +1185,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -683,16 +1202,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -703,13 +1219,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -723,13 +1239,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -743,13 +1259,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -763,13 +1279,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -783,13 +1299,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -803,13 +1319,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -823,13 +1339,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -843,13 +1359,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -863,13 +1379,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -883,13 +1399,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -903,13 +1419,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -923,13 +1439,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -943,13 +1459,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -963,13 +1479,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -983,13 +1499,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1003,13 +1519,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1023,13 +1539,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1043,13 +1559,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1063,13 +1579,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1083,13 +1599,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1103,21 +1619,1801 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="508">
   <si>
     <t>File</t>
   </si>
@@ -49,12 +49,54 @@
     <t>📰</t>
   </si>
   <si>
+    <t>dataSourceObjects/Case_Home.dataSourceObject-meta.xml</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dataStreamDefinitions/Case_Home.dataStreamDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>DataStreamDefinition Case_Home</t>
+  </si>
+  <si>
     <t>datacategorygroups/Global_Categories.datacategorygroup-meta.xml</t>
   </si>
   <si>
     <t>DataCategoryGroup Global_Categories</t>
   </si>
   <si>
+    <t>flexipages/Default_Contact_Layout.flexipage-meta.xml</t>
+  </si>
+  <si>
+    <t>FlexiPage Default_Contact_Layout</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Email_Message_After_Trigger_Update_Case_Activity_Dates.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Email_Message_After_Trigger_Update_Case_Activity_Dates</t>
+  </si>
+  <si>
+    <t>flows/Email_Message_After_Trigger_Update_Case_Activity_Dates.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Email_Message_After_Trigger_Update_Case_Activity_Dates</t>
+  </si>
+  <si>
+    <t>globalValueSets/QA_Departments.globalValueSet-meta.xml</t>
+  </si>
+  <si>
+    <t>GlobalValueSet QA_Departments</t>
+  </si>
+  <si>
+    <t>layouts/ExtDataShareTarget-Data Share Target Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout ExtDataShareTarget-Data Share Target Layout</t>
+  </si>
+  <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
   </si>
   <si>
@@ -73,6 +115,1296 @@
     <t>MessagingChannel Sales_Chat</t>
   </si>
   <si>
+    <t>mktDataTranObjects/Case_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject Case_Home</t>
+  </si>
+  <si>
+    <t>objectSourceTargetMaps/Case_Home_map_Case_Home_1762995942309.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap Case_Home_map_Case_Home_1762995942309</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/Case_Home__dll.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Case_Home__dll/Case_Home__dll</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/AccountId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AccountId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/BusinessHoursId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BusinessHoursId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/CaseNumber__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CaseNumber__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/CaseTimer19_Cumulative_Time_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CaseTimer19_Cumulative_Time_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Age_In_Business_Hours_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Age_In_Business_Hours_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Age_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Age_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Flag_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Flag_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Sent_to_External_Team_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Sent_to_External_Team_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Sentiment_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Sentiment_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Source_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Source_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Team_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Team_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Category_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Category_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Child_Case_Instructions_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Child_Case_Instructions_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Client_Satisfaction_CSAT_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Satisfaction_CSAT_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Client_Support_Team_CST_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Support_Team_CST_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ClosedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ClosedDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Comments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Comments__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ConnectionReceivedId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ConnectionReceivedId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ConnectionSentId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ConnectionSentId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ContactEmail__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactEmail__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ContactFax__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactFax__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ContactId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ContactMobile__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactMobile__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ContactPhone__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactPhone__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/CreatedById__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CreatedById__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/CreatedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CreatedDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Customer_Re_Opened_Case_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Customer_Re_Opened_Case_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DataSourceObject__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/DataSource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DataSource__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Department_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Department_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Description__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Description__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/First_Response_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField First_Response_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/HasCommentsUnreadByOwner__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField HasCommentsUnreadByOwner__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/HasSelfServiceComments__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField HasSelfServiceComments__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Id__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Implementation_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Implementation_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsClosedOnCreate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsClosedOnCreate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsClosed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsClosed__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsDeleted__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsDeleted__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsEscalated__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsEscalated__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Priority_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Priority_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField KQ_Id__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Language__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Language__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastModifiedById__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastModifiedDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/LastReferencedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastReferencedDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/LastViewedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastViewedDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Status_Change_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Status_Change_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/MasterRecordId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField MasterRecordId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/MilestoneStatus__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField MilestoneStatus__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Origin__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Origin__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/OwnerId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField OwnerId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ParentId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ParentId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Plan_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Plan_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Priority__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reason__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reason__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/RecordTypeId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField RecordTypeId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reopened_Count_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reopened_Count_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Request_Reason_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Request_Reason_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Sentiment_Score_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sentiment_Score_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SfdcOrganizationId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Status__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Status__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Subject__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Subject__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SuppliedCompany__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SuppliedCompany__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SuppliedEmail__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SuppliedEmail__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SuppliedName__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SuppliedName__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SuppliedPhone__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SuppliedPhone__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SystemModstamp__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Team_Member_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Team_Member_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_Open_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_Open_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_With_Customer_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_With_Customer_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_With_Support_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_With_Support_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_to_Action_SLA_Met_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_to_Action_SLA_Met_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_to_Close_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_to_Close_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Type__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Type__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Ubiquity_Leader_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ubiquity_Leader_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Web_First_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Web_First_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Web_Form_Category_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Web_Form_Category_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Web_Form_Role_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Web_Form_Role_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Web_Last_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Web_Last_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField cdp_sys_SourceVersion__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Browser_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Browser_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_City_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_City_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Country_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Country_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Device_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Device_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Campaign_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Campaign_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Channel_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Channel_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Content_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Content_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Landing_Page_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Landing_Page_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Medium_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Medium_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Referrer_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Referrer_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Source_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Source_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Term_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_First_Click_Term_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_GCLID_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_GCLID_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Google_Analytics_Client_ID_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Google_Analytics_Client_ID_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Google_Analytics_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Google_Analytics_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_IP_Address_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_IP_Address_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Campaign_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Campaign_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Channel_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Channel_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Content_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Content_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Landing_Page_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Landing_Page_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Medium_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Medium_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Referrer_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Referrer_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Source_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Source_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Term_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Last_Click_Term_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Latitude_from_IP_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Latitude_from_IP_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Location_approx_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Location_approx_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Longitude_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Longitude_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Number_of_Website_Visits_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Number_of_Website_Visits_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Operating_System_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Operating_System_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Pages_visited_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Pages_visited_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Time_Spent_on_Website_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Time_Spent_on_Website_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Time_Spent_on_Website_formul__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Time_Spent_on_Website_formul__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/gaconnector_Time_Zone_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField gaconnector_Time_Zone_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/lntcss_Splited_From_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField lntcss_Splited_From_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Action_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Action_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Is_distributed_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Is_distributed_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Is_reassigned_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Is_reassigned_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Is_trigger_enabled_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Is_trigger_enabled_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Is_triggered_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Is_triggered_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Last_distributed_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Last_distributed_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Last_reassigned_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Last_reassigned_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Time_to_action_mins_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Time_to_action_mins_c__c</t>
+  </si>
+  <si>
+    <t>objects/Quality_Assurance_QA__c/recordTypes/Dynamic_QA_Form.recordType-meta.xml</t>
+  </si>
+  <si>
+    <t>RecordType Dynamic_QA_Form</t>
+  </si>
+  <si>
+    <t>profiles/Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Admin</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Analytics Cloud Security User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Analytics Cloud Security User</t>
+  </si>
+  <si>
+    <t>profiles/Anypoint Integration.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Anypoint Integration</t>
+  </si>
+  <si>
+    <t>profiles/B2BMA Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile B2BMA Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Billing User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Billing User</t>
+  </si>
+  <si>
+    <t>profiles/Bot Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Bot Profile</t>
+  </si>
+  <si>
+    <t>profiles/Business Development.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Business Development</t>
+  </si>
+  <si>
+    <t>profiles/Call Center.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Call Center</t>
+  </si>
+  <si>
+    <t>profiles/Chatter External User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter External User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Free User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Free User</t>
+  </si>
+  <si>
+    <t>profiles/Chatter Moderator User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Chatter Moderator User</t>
+  </si>
+  <si>
+    <t>profiles/Client Onboarding - Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Onboarding - Admin</t>
+  </si>
+  <si>
+    <t>profiles/Client Onboarding - RM.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Onboarding - RM</t>
+  </si>
+  <si>
+    <t>profiles/Client Servicing Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Client Servicing Team</t>
+  </si>
+  <si>
+    <t>profiles/Compliance Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Compliance Manager</t>
+  </si>
+  <si>
+    <t>profiles/ContractManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ContractManager</t>
+  </si>
+  <si>
+    <t>profiles/Director of Operations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Director of Operations</t>
+  </si>
+  <si>
+    <t>profiles/Director of Sales.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Director of Sales</t>
+  </si>
+  <si>
+    <t>profiles/Distributions.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Distributions</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Agentforce_MIAW_1748035300267 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Agentforce_MIAW_1748035300267 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Agentforce_MIAW_1748385215843 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Agentforce_MIAW_1748385215843 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_CE_Chat_1692890394498 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_CE_Chat_1692890394498 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_CE_Chat_Moe_1693182845676 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_CE_Chat_Moe_1693182845676 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Login_Help_1697133738638 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Login_Help_1697133738638 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Login_Help_Simply_1700075140889 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Login_Help_Simply_1700075140889 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_1694183770479 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_1694183770479 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_CO_1696448547822 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_CO_1696448547822 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_Sallus_1700075448386 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_Sallus_1700075448386 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Omni_Messaging_Simply_1700076370188 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Omni_Messaging_Simply_1700076370188 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_QA_Login_1699666348585 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_QA_Login_1699666348585 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_QA_Messaging_1699974036493 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_QA_Messaging_1699974036493 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Sales_Chat_1697460991337 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Sales_Chat_1697460991337 Profile</t>
+  </si>
+  <si>
+    <t>profiles/ESW_Sallus_Login_Chat_1700072925200 Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile ESW_Sallus_Login_Chat_1700072925200 Profile</t>
+  </si>
+  <si>
+    <t>profiles/Einstein Agent User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Einstein Agent User</t>
+  </si>
+  <si>
+    <t>profiles/External Apps Login User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile External Apps Login User</t>
+  </si>
+  <si>
+    <t>profiles/Finance Manager Lightning.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Finance Manager Lightning</t>
+  </si>
+  <si>
+    <t>profiles/Guest License User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Guest License User</t>
+  </si>
+  <si>
+    <t>profiles/Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/IT.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile IT</t>
+  </si>
+  <si>
+    <t>profiles/Identity User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Identity User</t>
+  </si>
+  <si>
+    <t>profiles/Incoming_SMS Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Incoming_SMS Profile</t>
+  </si>
+  <si>
+    <t>profiles/Leadership Lightning.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Leadership Lightning</t>
+  </si>
+  <si>
+    <t>profiles/Leadership.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Leadership</t>
+  </si>
+  <si>
+    <t>profiles/Learning %26 Development.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Learning %26 Development</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Client Onboarding.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Client Onboarding</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Compliance.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Compliance</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Saver User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Saver User</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Service Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Service Manager</t>
+  </si>
+  <si>
+    <t>profiles/Lightning Service User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Lightning Service User</t>
+  </si>
+  <si>
+    <t>profiles/Marketing Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Marketing Team</t>
+  </si>
+  <si>
+    <t>profiles/MarketingProfile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile MarketingProfile</t>
+  </si>
+  <si>
+    <t>profiles/Master Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Master Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - API Only Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - API Only Integrations</t>
+  </si>
+  <si>
+    <t>profiles/Minimum Access - Salesforce.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Minimum Access - Salesforce</t>
+  </si>
+  <si>
+    <t>profiles/Operations VP.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operations VP</t>
+  </si>
+  <si>
+    <t>profiles/Operations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Operations</t>
+  </si>
+  <si>
+    <t>profiles/PSM Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile PSM Team</t>
+  </si>
+  <si>
+    <t>profiles/Paradigm Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Paradigm Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/Payroll Koncierge.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Payroll Koncierge</t>
+  </si>
+  <si>
+    <t>profiles/Payroll Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Payroll Team</t>
+  </si>
+  <si>
+    <t>profiles/People %26 Culture.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile People %26 Culture</t>
+  </si>
+  <si>
+    <t>profiles/Pre-chat Site Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Pre-chat Site Profile</t>
+  </si>
+  <si>
+    <t>profiles/Product Innovation Leadership.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Product Innovation Leadership</t>
+  </si>
+  <si>
+    <t>profiles/Product Innovation User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Product Innovation User</t>
+  </si>
+  <si>
+    <t>profiles/R%26W.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile R%26W</t>
+  </si>
+  <si>
+    <t>profiles/Read Only.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Read Only</t>
+  </si>
+  <si>
+    <t>profiles/Sales Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Sales Coordinator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Coordinator</t>
+  </si>
+  <si>
+    <t>profiles/Sales Insights Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Insights Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Sales Team - Limited.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Team - Limited</t>
+  </si>
+  <si>
+    <t>profiles/Sales Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sales Team</t>
+  </si>
+  <si>
+    <t>profiles/Salesforce API Only System Integrations.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Salesforce API Only System Integrations</t>
+  </si>
+  <si>
+    <t>profiles/SalesforceIQ Integration User.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SalesforceIQ Integration User</t>
+  </si>
+  <si>
+    <t>profiles/Saver Manager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Saver Manager</t>
+  </si>
+  <si>
+    <t>profiles/Simple Survey Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Simple Survey Profile</t>
+  </si>
+  <si>
+    <t>profiles/Simply Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Simply Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/SolutionManager.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile SolutionManager</t>
+  </si>
+  <si>
+    <t>profiles/Standard.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Standard</t>
+  </si>
+  <si>
+    <t>profiles/StandardAul.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile StandardAul</t>
+  </si>
+  <si>
+    <t>profiles/Super System Administrator.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Super System Administrator</t>
+  </si>
+  <si>
+    <t>profiles/Sys Dev Admin.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Sys Dev Admin</t>
+  </si>
+  <si>
+    <t>profiles/Transitions Team.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Transitions Team</t>
+  </si>
+  <si>
+    <t>profiles/Ubiquity Help Center Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Ubiquity Help Center Profile</t>
+  </si>
+  <si>
+    <t>profiles/Zoom Webhooks Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile Zoom Webhooks Profile</t>
+  </si>
+  <si>
+    <t>profiles/myubiquity Profile.profile-meta.xml</t>
+  </si>
+  <si>
+    <t>Profile myubiquity Profile</t>
+  </si>
+  <si>
     <t>siteDotComSites/Help_Center1.site</t>
   </si>
   <si>
@@ -191,6 +1523,18 @@
   </si>
   <si>
     <t>VirtualWave Wave_Adoption.wdash</t>
+  </si>
+  <si>
+    <t>workflows/Opportunity.workflow-meta.xml</t>
+  </si>
+  <si>
+    <t>Workflow Opportunity</t>
+  </si>
+  <si>
+    <t>manifest/package-all-org-items.xml</t>
+  </si>
+  <si>
+    <t>manifest/package-backup-items.xml</t>
   </si>
 </sst>
 </file>
@@ -567,12 +1911,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G251"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="94" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -625,14 +1969,11 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -645,14 +1986,11 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -765,14 +2103,11 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -845,14 +2180,11 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -865,14 +2197,11 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -885,14 +2214,11 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -905,14 +2231,11 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -925,14 +2248,11 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -945,14 +2265,11 @@
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -965,14 +2282,11 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -985,14 +2299,11 @@
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1005,14 +2316,11 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1025,14 +2333,11 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1045,14 +2350,11 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1065,14 +2367,11 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1085,19 +2384,4171 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>185</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>217</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>231</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>237</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>239</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>243</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>245</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>249</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>259</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>263</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>267</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>273</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>277</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>283</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>289</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>295</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>317</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>327</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>329</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>331</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>333</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>337</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>339</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>341</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>345</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>351</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>355</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>357</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>361</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>363</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>365</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>367</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>369</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>373</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>377</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>379</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>381</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>383</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>385</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>387</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>389</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>391</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>393</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>395</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>397</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>399</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>401</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>403</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>405</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>407</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>409</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>411</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>413</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>415</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>417</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>419</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>421</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>423</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>425</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>427</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>429</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>431</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>433</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>435</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>437</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>439</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>441</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>443</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>445</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>447</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>449</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>451</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>453</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>454</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>455</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>456</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>457</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>458</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>459</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>460</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>461</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>462</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228" t="s">
+        <v>463</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>464</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>465</v>
+      </c>
+      <c r="D229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>466</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>467</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>469</v>
+      </c>
+      <c r="D231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>470</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>471</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>472</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>473</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>474</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>475</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>476</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>477</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>478</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>479</v>
+      </c>
+      <c r="D236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>480</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>481</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>482</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>483</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>485</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>486</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>487</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>489</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>491</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>493</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>495</v>
+      </c>
+      <c r="D244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>497</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>499</v>
+      </c>
+      <c r="D246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>500</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247" t="s">
+        <v>501</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>502</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248" t="s">
+        <v>503</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>505</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>506</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>507</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>507</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="601">
   <si>
     <t>File</t>
   </si>
@@ -49,16 +49,25 @@
     <t>📰</t>
   </si>
   <si>
-    <t>dataSourceObjects/Case_Home.dataSourceObject-meta.xml</t>
+    <t>dataSourceObjects/Account_Home.dataSourceObject-meta.xml</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>dataStreamDefinitions/Case_Home.dataStreamDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>DataStreamDefinition Case_Home</t>
+    <t>dataSourceObjects/UserRole_Home.dataSourceObject-meta.xml</t>
+  </si>
+  <si>
+    <t>dataStreamDefinitions/Account_Home.dataStreamDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>DataStreamDefinition Account_Home</t>
+  </si>
+  <si>
+    <t>dataStreamDefinitions/UserRole_Home.dataStreamDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>DataStreamDefinition UserRole_Home</t>
   </si>
   <si>
     <t>datacategorygroups/Global_Categories.datacategorygroup-meta.xml</t>
@@ -67,36 +76,30 @@
     <t>DataCategoryGroup Global_Categories</t>
   </si>
   <si>
+    <t>externalAIModels/HAWKING_ARTICLE_RECOMMENDATION_1762821641251.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_ARTICLE_RECOMMENDATION_1763081746879.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1762907447221.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1763080674582.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1763080674628.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1763080901646.externalAIModel-meta.xml</t>
+  </si>
+  <si>
     <t>flexipages/Default_Contact_Layout.flexipage-meta.xml</t>
   </si>
   <si>
     <t>FlexiPage Default_Contact_Layout</t>
   </si>
   <si>
-    <t>flowDefinitions/Email_Message_After_Trigger_Update_Case_Activity_Dates.flowDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>FlowDefinition Email_Message_After_Trigger_Update_Case_Activity_Dates</t>
-  </si>
-  <si>
-    <t>flows/Email_Message_After_Trigger_Update_Case_Activity_Dates.flow-meta.xml</t>
-  </si>
-  <si>
-    <t>Flow Email_Message_After_Trigger_Update_Case_Activity_Dates</t>
-  </si>
-  <si>
-    <t>globalValueSets/QA_Departments.globalValueSet-meta.xml</t>
-  </si>
-  <si>
-    <t>GlobalValueSet QA_Departments</t>
-  </si>
-  <si>
-    <t>layouts/ExtDataShareTarget-Data Share Target Layout.layout-meta.xml</t>
-  </si>
-  <si>
-    <t>Layout ExtDataShareTarget-Data Share Target Layout</t>
-  </si>
-  <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
   </si>
   <si>
@@ -115,778 +118,1054 @@
     <t>MessagingChannel Sales_Chat</t>
   </si>
   <si>
-    <t>mktDataTranObjects/Case_Home.mktDataTranObject-meta.xml</t>
-  </si>
-  <si>
-    <t>MktDataTranObject Case_Home</t>
-  </si>
-  <si>
-    <t>objectSourceTargetMaps/Case_Home_map_Case_Home_1762995942309.objectSourceTargetMap-meta.xml</t>
-  </si>
-  <si>
-    <t>ObjectSourceTargetMap Case_Home_map_Case_Home_1762995942309</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/Case_Home__dll.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Case_Home__dll/Case_Home__dll</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/AccountId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AccountId__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/BusinessHoursId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BusinessHoursId__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/CaseNumber__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField CaseNumber__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/CaseTimer19_Cumulative_Time_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField CaseTimer19_Cumulative_Time_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Age_In_Business_Hours_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Age_In_Business_Hours_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Age_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Age_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Flag_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Flag_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Sent_to_External_Team_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Sent_to_External_Team_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Sentiment_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Sentiment_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Source_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Source_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Team_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Team_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Case_Type_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Case_Type_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Category_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Category_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Child_Case_Instructions_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Child_Case_Instructions_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Client_Satisfaction_CSAT_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Satisfaction_CSAT_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Client_Support_Team_CST_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Support_Team_CST_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ClosedDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ClosedDate__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Comments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Comments__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ConnectionReceivedId__c.field-meta.xml</t>
+    <t>mktDataTranObjects/Account_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject Account_Home</t>
+  </si>
+  <si>
+    <t>mktDataTranObjects/UserRole_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject UserRole_Home</t>
+  </si>
+  <si>
+    <t>objectSourceTargetMaps/Account_Home_map_Account_Home_1763079822343.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap Account_Home_map_Account_Home_1763079822343</t>
+  </si>
+  <si>
+    <t>objectSourceTargetMaps/UserRole_Home_map_UserRole_Home_1763080258007.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap UserRole_Home_map_UserRole_Home_1763080258007</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/Account_Home__dll.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject Account_Home__dll/Account_Home__dll</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/AccountNumber__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AccountNumber__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/AccountSource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AccountSource__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Accounts_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Accounts_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ActivityMetricId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ActivityMetricId__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ActivityMetricRollupId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ActivityMetricRollupId__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/All_Traffic_Sources_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField All_Traffic_Sources_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/AnnualRevenue__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AnnualRevenue__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Asset_Manager_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asset_Manager_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Auto_Enrollment_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Auto_Enrollment_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BD_Parent_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BD_Parent_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BD_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BD_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingCity__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingCity__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingCountryCode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingCountryCode__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingCountry__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingCountry__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingGeocodeAccuracy__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingGeocodeAccuracy__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingLatitude__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingLatitude__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingLongitude__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingLongitude__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingPostalCode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingPostalCode__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingStateCode__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingStateCode__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingState__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingState__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/BillingStreet__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BillingStreet__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Campaign_code_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Campaign_code_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ChannelProgramLevelName__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ChannelProgramLevelName__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ChannelProgramName__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ChannelProgramName__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Channel_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Channel_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Client_Support_Teams_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Support_Teams_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Company_size_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Company_size_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Competitive_Summary_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Competitive_Summary_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ConnectionReceivedId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField ConnectionReceivedId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/ConnectionSentId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/ConnectionSentId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField ConnectionSentId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/ContactEmail__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactEmail__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ContactFax__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactFax__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ContactId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactId__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ContactMobile__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactMobile__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/ContactPhone__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactPhone__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/CreatedById__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/CreatedById__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField CreatedById__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/CreatedDate__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/CreatedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField CreatedDate__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Customer_Re_Opened_Case_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Customer_Re_Opened_Case_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Current_Plan_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Current_Plan_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Custodian_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Custodian_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Enrich_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DOZISF_ZoomInfo_Enrich_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_First_Updated_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DOZISF_ZoomInfo_First_Updated_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Id_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DOZISF_ZoomInfo_Id_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_InboxAI_ID_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DOZISF_ZoomInfo_InboxAI_ID_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Last_Updated_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DOZISF_ZoomInfo_Last_Updated_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField DataSourceObject__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/DataSource__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/DataSource__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField DataSource__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Department_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Department_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Description__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Date_last_shopped_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Date_last_shopped_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Description__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Description__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/First_Response_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField First_Response_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/HasCommentsUnreadByOwner__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField HasCommentsUnreadByOwner__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/HasSelfServiceComments__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField HasSelfServiceComments__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Id__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/DesiredPlanStartDate_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DesiredPlanStartDate_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Employer_Identification_Number_EIN_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Employer_Identification_Number_EIN_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Fax__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fax__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Fund_List_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fund_List_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/GA_Client_ID_Formula_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField GA_Client_ID_Formula_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/How_did_you_hear_about_us_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField How_did_you_hear_about_us_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/How_did_you_hear_about_us_details_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField How_did_you_hear_about_us_details_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Id__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Id__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Implementation_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Implementation_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/IsClosedOnCreate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsClosedOnCreate__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/IsClosed__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsClosed__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/IsDeleted__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Industry__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Industry__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Investment_selection_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Investment_selection_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Investments_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Investments_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/IsCustomerPortal__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsCustomerPortal__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/IsDeleted__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField IsDeleted__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/IsEscalated__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsEscalated__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/JIRA_Priority_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField JIRA_Priority_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/JIRA_Status_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField JIRA_Status_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/IsPartner__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsPartner__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/IsPriorityRecord__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsPriorityRecord__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/JigsawCompanyId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JigsawCompanyId__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Jigsaw__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Jigsaw__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField KQ_Id__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Language__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Language__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Knows_Rep_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Knows_Rep_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/LID_LinkedIn_Company_Id_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LID_LinkedIn_Company_Id_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/LastActivityDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField LastActivityDate__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastModifiedById__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastModifiedDate__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/LastReferencedDate__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/LastReferencedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastReferencedDate__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/LastViewedDate__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/LastViewedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastViewedDate__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Last_Status_Change_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Last_Status_Change_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/MasterRecordId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/MasterRecordId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField MasterRecordId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/MilestoneStatus__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField MilestoneStatus__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Origin__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Origin__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/OwnerId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Message_from_Lead_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Message_from_Lead_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Multiple_Business_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Multiple_Business_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Name__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/New_Comp_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField New_Comp_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/NumberOfEmployees__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField NumberOfEmployees__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Ongoing_Service_Issues_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ongoing_Service_Issues_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Other_Payroll_Provider_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Other_Payroll_Provider_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Other_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Other_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/OwnerId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField OwnerId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/ParentId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/PCRAAnnualFee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PCRAAnnualFee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/ParentId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField ParentId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Plan_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Plan_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Priority__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Priority__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Reason__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Reason__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/RecordTypeId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Partner_Integration_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Partner_Integration_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/PayPartner_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PayPartner_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Payroll_Provider_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payroll_Provider_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Payroll_Submission_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payroll_Submission_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Payroll_partner_notes_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payroll_partner_notes_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Phone__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Phone__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/PhotoUrl__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PhotoUrl__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Priority_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/RecordTypeId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField RecordTypeId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Reopened_Count_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Reopened_Count_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Request_Reason_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Request_Reason_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Sentiment_Score_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Sentiment_Score_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Record_Keeping_System_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Record_Keeping_System_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Relationship_Manager_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Relationship_Manager_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Revenue_Share_Option_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Revenue_Share_Option_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Safe_Harbor_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Safe_Harbor_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Sales_Notes_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sales_Notes_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Service_Option_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Option_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Setup_fee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Setup_fee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField SfdcOrganizationId__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Status__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Status__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Subject__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Subject__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SuppliedCompany__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SuppliedCompany__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SuppliedEmail__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SuppliedEmail__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SuppliedName__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SuppliedName__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SuppliedPhone__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SuppliedPhone__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/SicDesc__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SicDesc__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Sic__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sic__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Software_Vendor_Payroll_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Software_Vendor_Payroll_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/SourceSystemIdentifier__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SourceSystemIdentifier__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/SpecialFees_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SpecialFees_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Strategic_Partner_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Strategic_Partner_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField SystemModstamp__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Team_Member_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Team_Member_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Time_Open_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_Open_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Time_With_Customer_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_With_Customer_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Time_With_Support_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_With_Support_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Time_to_Action_SLA_Met_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_to_Action_SLA_Met_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Time_to_Close_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Time_to_Close_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Type__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/Timeframe_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Timeframe_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/TimezoneDELETE_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField TimezoneDELETE_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Type__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Type__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/Ubiquity_Leader_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Ubiquity_Leader_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Web_First_Name_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Web_First_Name_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Web_Form_Category_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Web_Form_Category_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Web_Form_Role_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Web_Form_Role_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/Web_Last_Name_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Web_Last_Name_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/TypeofBusiness_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField TypeofBusiness_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Volume_Level_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Volume_Level_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Website__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Website__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/affectlayer_AffectLayer_Notes_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField affectlayer_AffectLayer_Notes_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/affectlayer_IsCreatedByChorusZI_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField affectlayer_IsCreatedByChorusZI_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField cdp_sys_SourceVersion__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Browser_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/cdp_sys_record_currency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField cdp_sys_record_currency__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/gaconnector_Browser_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Browser_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_City_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_City_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_City_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Country_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Country_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Country_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Device_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Device_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Device_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Campaign_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Campaign_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Campaign_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Channel_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Channel_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Channel_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Content_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Content_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Content_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Landing_Page_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Landing_Page_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Landing_Page_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Medium_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Medium_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Medium_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Referrer_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Referrer_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Referrer_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Source_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Source_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Source_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_First_Click_Term_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Term_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_First_Click_Term_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_GCLID_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_GCLID_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_GCLID_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Google_Analytics_Client_ID_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Google_Analytics_Client_ID_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Google_Analytics_Client_ID_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Google_Analytics_Link_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Google_Analytics_Link_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Google_Analytics_Link_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_IP_Address_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_IP_Address_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_IP_Address_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Campaign_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Campaign_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Campaign_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Channel_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Channel_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Channel_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Content_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Content_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Content_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Landing_Page_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Landing_Page_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Landing_Page_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Medium_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Medium_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Medium_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Referrer_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Referrer_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Referrer_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Source_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Source_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Source_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Last_Click_Term_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Term_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Last_Click_Term_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Latitude_from_IP_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Latitude_from_IP_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Latitude_from_IP_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Location_approx_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Location_approx_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Location_approx_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Longitude_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Longitude_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Longitude_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Number_of_Website_Visits_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Number_of_Website_Visits_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Number_of_Website_Visits_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Operating_System_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Operating_System_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Operating_System_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Pages_visited_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Pages_visited_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Pages_visited_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Time_Spent_on_Website_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Time_Spent_on_Website_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Time_Spent_on_Website_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Time_Spent_on_Website_formul__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Time_Spent_on_Website_formul__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Time_Spent_on_Website_formul__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/gaconnector_Time_Zone_c__c.field-meta.xml</t>
+    <t>objects/Account_Home__dll/fields/gaconnector_Time_Zone_c__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField gaconnector_Time_Zone_c__c</t>
   </si>
   <si>
-    <t>objects/Case_Home__dll/fields/lntcss_Splited_From_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField lntcss_Splited_From_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Action_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Action_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Is_distributed_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Is_distributed_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Is_reassigned_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Is_reassigned_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Is_trigger_enabled_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Is_trigger_enabled_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Is_triggered_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Is_triggered_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Last_distributed_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Last_distributed_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Last_reassigned_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Last_reassigned_c__c</t>
-  </si>
-  <si>
-    <t>objects/Case_Home__dll/fields/n2de_Time_to_action_mins_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField n2de_Time_to_action_mins_c__c</t>
-  </si>
-  <si>
-    <t>objects/Quality_Assurance_QA__c/recordTypes/Dynamic_QA_Form.recordType-meta.xml</t>
-  </si>
-  <si>
-    <t>RecordType Dynamic_QA_Form</t>
+    <t>objects/Account_Home__dll/fields/x1stbilldate_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField x1stbilldate_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/x401kProvider_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField x401kProvider_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/zzCONVERSIONFEE_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField zzCONVERSIONFEE_c__c</t>
+  </si>
+  <si>
+    <t>objects/Knowledge__kav/listViews/published_articles.listView-meta.xml</t>
+  </si>
+  <si>
+    <t>ListView published_articles</t>
+  </si>
+  <si>
+    <t>objects/Partner_Partner_Association__c/fields/Owner__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Owner__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/UserRole_Home__dll.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject UserRole_Home__dll/UserRole_Home__dll</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/CaseAccessForAccountOwner__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CaseAccessForAccountOwner__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/ContactAccessForAccountOwner__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ContactAccessForAccountOwner__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/DataSource__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/DeveloperName__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DeveloperName__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/ForecastUserId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForecastUserId__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/MayForecastManagerShare__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField MayForecastManagerShare__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/ParentRoleId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ParentRoleId__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/PortalAccountId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PortalAccountId__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/PortalAccountOwnerId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PortalAccountOwnerId__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/PortalRole__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PortalRole__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/PortalType__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PortalType__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/RollupDescription__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField RollupDescription__c</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/UserRole_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>permissionsets/sfdcInternalInt__sfdc_slack.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet sfdcInternalInt__sfdc_slack</t>
   </si>
   <si>
     <t>profiles/Admin.profile-meta.xml</t>
@@ -1405,6 +1684,12 @@
     <t>Profile myubiquity Profile</t>
   </si>
   <si>
+    <t>settings/EAC.settings-meta.xml</t>
+  </si>
+  <si>
+    <t>Settings EAC</t>
+  </si>
+  <si>
     <t>siteDotComSites/Help_Center1.site</t>
   </si>
   <si>
@@ -1523,12 +1808,6 @@
   </si>
   <si>
     <t>VirtualWave Wave_Adoption.wdash</t>
-  </si>
-  <si>
-    <t>workflows/Opportunity.workflow-meta.xml</t>
-  </si>
-  <si>
-    <t>Workflow Opportunity</t>
   </si>
   <si>
     <t>manifest/package-all-org-items.xml</t>
@@ -1911,12 +2190,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G306"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -1990,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -2001,16 +2280,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -2021,16 +2297,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -2041,13 +2314,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2061,13 +2334,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -2081,16 +2354,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -2101,13 +2371,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2118,16 +2391,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2138,16 +2408,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2158,16 +2425,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2178,13 +2442,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -2195,13 +2462,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2212,13 +2482,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -2229,13 +2502,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -2246,13 +2522,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2263,13 +2539,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2280,13 +2556,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2297,13 +2573,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2314,13 +2590,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2331,13 +2607,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2348,13 +2624,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2365,13 +2641,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -2382,13 +2658,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2399,13 +2675,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2416,13 +2692,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2433,13 +2709,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2450,13 +2726,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2467,13 +2743,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -2484,13 +2760,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -2501,13 +2777,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2518,13 +2794,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -2535,13 +2811,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -2552,13 +2828,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2569,13 +2845,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -2586,13 +2862,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -2603,13 +2879,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -2620,13 +2896,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -2637,13 +2913,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2654,13 +2930,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2671,13 +2947,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2688,13 +2964,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2705,13 +2981,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2722,13 +2998,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2739,13 +3015,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2756,13 +3032,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -2773,13 +3049,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -2790,13 +3066,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -2807,13 +3083,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2824,13 +3100,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -2841,13 +3117,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2858,13 +3134,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -2875,13 +3151,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2892,13 +3168,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2909,13 +3185,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2926,13 +3202,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2943,13 +3219,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2960,13 +3236,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2977,13 +3253,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2994,13 +3270,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -3011,13 +3287,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -3028,13 +3304,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -3045,13 +3321,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -3062,13 +3338,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -3079,13 +3355,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -3096,13 +3372,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3113,13 +3389,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -3130,13 +3406,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3147,13 +3423,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -3164,13 +3440,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -3181,13 +3457,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3198,13 +3474,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3215,13 +3491,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3232,13 +3508,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -3249,13 +3525,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -3266,13 +3542,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -3283,13 +3559,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -3300,13 +3576,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -3317,13 +3593,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -3334,13 +3610,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -3351,13 +3627,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -3368,13 +3644,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -3385,13 +3661,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -3402,13 +3678,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -3419,13 +3695,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -3436,13 +3712,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -3453,13 +3729,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -3470,13 +3746,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -3487,13 +3763,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3504,13 +3780,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -3521,13 +3797,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3538,13 +3814,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3555,13 +3831,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3572,13 +3848,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -3589,13 +3865,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -3606,13 +3882,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3623,13 +3899,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3640,13 +3916,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3657,13 +3933,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3674,13 +3950,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -3691,13 +3967,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -3708,13 +3984,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -3725,13 +4001,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -3742,13 +4018,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -3759,13 +4035,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3776,13 +4052,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -3793,13 +4069,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F109" t="s">
         <v>10</v>
@@ -3810,13 +4086,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -3827,13 +4103,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
@@ -3844,13 +4120,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
@@ -3861,13 +4137,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F113" t="s">
         <v>10</v>
@@ -3878,13 +4154,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F114" t="s">
         <v>10</v>
@@ -3895,13 +4171,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
@@ -3912,13 +4188,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
@@ -3929,13 +4205,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
@@ -3946,13 +4222,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F118" t="s">
         <v>10</v>
@@ -3963,13 +4239,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -3980,13 +4256,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
@@ -3997,13 +4273,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
@@ -4014,13 +4290,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
@@ -4031,13 +4307,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F123" t="s">
         <v>10</v>
@@ -4048,13 +4324,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -4065,13 +4341,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F125" t="s">
         <v>10</v>
@@ -4082,13 +4358,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
@@ -4099,13 +4375,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F127" t="s">
         <v>10</v>
@@ -4116,13 +4392,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F128" t="s">
         <v>10</v>
@@ -4133,13 +4409,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F129" t="s">
         <v>10</v>
@@ -4150,13 +4426,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -4167,13 +4443,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F131" t="s">
         <v>10</v>
@@ -4184,13 +4460,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
@@ -4201,13 +4477,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
@@ -4218,13 +4494,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F134" t="s">
         <v>10</v>
@@ -4235,13 +4511,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F135" t="s">
         <v>10</v>
@@ -4252,13 +4528,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F136" t="s">
         <v>10</v>
@@ -4269,13 +4545,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F137" t="s">
         <v>10</v>
@@ -4286,13 +4562,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -4303,13 +4579,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -4320,13 +4596,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -4337,13 +4613,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -4354,16 +4630,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>290</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>291</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="F142" t="s">
         <v>10</v>
@@ -4374,16 +4647,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>292</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
+        <v>286</v>
       </c>
       <c r="F143" t="s">
         <v>10</v>
@@ -4394,16 +4664,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>294</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="F144" t="s">
         <v>10</v>
@@ -4414,16 +4681,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>296</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -4434,16 +4698,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>298</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
+        <v>292</v>
       </c>
       <c r="F146" t="s">
         <v>10</v>
@@ -4454,16 +4715,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>300</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
       <c r="F147" t="s">
         <v>10</v>
@@ -4474,16 +4732,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>302</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>303</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="F148" t="s">
         <v>10</v>
@@ -4494,16 +4749,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>304</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -4514,16 +4766,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>306</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>307</v>
-      </c>
-      <c r="D150" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -4534,16 +4783,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -4554,16 +4800,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>310</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
@@ -4574,16 +4817,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>312</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
-      </c>
-      <c r="D153" t="s">
-        <v>9</v>
+        <v>306</v>
       </c>
       <c r="F153" t="s">
         <v>10</v>
@@ -4594,16 +4834,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>314</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
-      </c>
-      <c r="D154" t="s">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="F154" t="s">
         <v>10</v>
@@ -4614,16 +4851,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>316</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
-      </c>
-      <c r="D155" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
       <c r="F155" t="s">
         <v>10</v>
@@ -4634,16 +4868,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
-      </c>
-      <c r="D156" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="F156" t="s">
         <v>10</v>
@@ -4654,16 +4885,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>320</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
-      </c>
-      <c r="D157" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -4674,16 +4902,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>322</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
-      </c>
-      <c r="D158" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -4694,16 +4919,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>324</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>325</v>
-      </c>
-      <c r="D159" t="s">
-        <v>9</v>
+        <v>318</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -4714,16 +4936,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>327</v>
-      </c>
-      <c r="D160" t="s">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="F160" t="s">
         <v>10</v>
@@ -4734,16 +4953,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>328</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>329</v>
-      </c>
-      <c r="D161" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -4754,16 +4970,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>330</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
+        <v>323</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
-      </c>
-      <c r="D162" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -4774,16 +4987,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>332</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
       </c>
       <c r="C163" t="s">
-        <v>333</v>
-      </c>
-      <c r="D163" t="s">
-        <v>9</v>
+        <v>326</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -4794,16 +5004,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>334</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
+        <v>327</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>335</v>
-      </c>
-      <c r="D164" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -4814,16 +5021,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>336</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
-      </c>
-      <c r="D165" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -4834,16 +5038,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
       </c>
       <c r="C166" t="s">
-        <v>339</v>
-      </c>
-      <c r="D166" t="s">
-        <v>9</v>
+        <v>332</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -4854,16 +5055,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>340</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
+        <v>333</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>341</v>
-      </c>
-      <c r="D167" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="F167" t="s">
         <v>10</v>
@@ -4874,16 +5072,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>342</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
+        <v>335</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>343</v>
-      </c>
-      <c r="D168" t="s">
-        <v>9</v>
+        <v>336</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -4894,16 +5089,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
+        <v>337</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>345</v>
-      </c>
-      <c r="D169" t="s">
-        <v>9</v>
+        <v>338</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -4914,16 +5106,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>347</v>
-      </c>
-      <c r="D170" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -4934,16 +5123,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
+        <v>341</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>349</v>
-      </c>
-      <c r="D171" t="s">
-        <v>9</v>
+        <v>342</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -4954,16 +5140,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>350</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
+        <v>343</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>351</v>
-      </c>
-      <c r="D172" t="s">
-        <v>9</v>
+        <v>344</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -4974,13 +5157,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -4994,16 +5177,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>354</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
+        <v>347</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -5014,16 +5194,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>357</v>
-      </c>
-      <c r="D175" t="s">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -5034,16 +5211,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
+        <v>351</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>359</v>
-      </c>
-      <c r="D176" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="F176" t="s">
         <v>10</v>
@@ -5054,16 +5228,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
+        <v>353</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>361</v>
-      </c>
-      <c r="D177" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -5074,16 +5245,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
+        <v>355</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -5094,16 +5262,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>364</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>365</v>
-      </c>
-      <c r="D179" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -5114,16 +5279,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>366</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
+        <v>357</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>367</v>
-      </c>
-      <c r="D180" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -5134,16 +5296,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>368</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
+        <v>359</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>369</v>
-      </c>
-      <c r="D181" t="s">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -5154,16 +5313,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
+        <v>361</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>371</v>
-      </c>
-      <c r="D182" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -5174,16 +5330,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>372</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
+        <v>362</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
-      </c>
-      <c r="D183" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -5194,16 +5347,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>374</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
+        <v>363</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
-      </c>
-      <c r="D184" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -5214,16 +5364,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>376</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
+        <v>364</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
-      </c>
-      <c r="D185" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -5234,16 +5381,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>378</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>379</v>
-      </c>
-      <c r="D186" t="s">
-        <v>9</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -5254,16 +5398,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>380</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
-      </c>
-      <c r="D187" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -5274,16 +5415,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
+        <v>368</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>383</v>
-      </c>
-      <c r="D188" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -5294,16 +5432,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>384</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
+        <v>370</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>385</v>
-      </c>
-      <c r="D189" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -5314,16 +5449,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>386</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
+        <v>372</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>387</v>
-      </c>
-      <c r="D190" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -5334,16 +5466,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
+        <v>374</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>389</v>
-      </c>
-      <c r="D191" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -5354,16 +5483,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>390</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
+        <v>376</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
-      </c>
-      <c r="D192" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -5374,16 +5500,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
+        <v>378</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>393</v>
-      </c>
-      <c r="D193" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -5394,16 +5517,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>394</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
+        <v>380</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>395</v>
-      </c>
-      <c r="D194" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -5414,16 +5534,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>397</v>
-      </c>
-      <c r="D195" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -5434,16 +5551,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
+        <v>382</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>399</v>
-      </c>
-      <c r="D196" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -5454,13 +5568,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
@@ -5474,13 +5588,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -5494,13 +5608,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D199" t="s">
         <v>9</v>
@@ -5514,13 +5628,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -5534,13 +5648,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
@@ -5554,13 +5668,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D202" t="s">
         <v>9</v>
@@ -5574,13 +5688,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D203" t="s">
         <v>9</v>
@@ -5594,13 +5708,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D204" t="s">
         <v>9</v>
@@ -5614,13 +5728,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
@@ -5634,13 +5748,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D206" t="s">
         <v>9</v>
@@ -5654,13 +5768,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="D207" t="s">
         <v>9</v>
@@ -5674,13 +5788,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
@@ -5694,13 +5808,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="D209" t="s">
         <v>9</v>
@@ -5714,13 +5828,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -5734,13 +5848,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D211" t="s">
         <v>9</v>
@@ -5754,13 +5868,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -5774,13 +5888,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
@@ -5794,13 +5908,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
@@ -5814,13 +5928,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
@@ -5834,13 +5948,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -5854,13 +5968,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D217" t="s">
         <v>9</v>
@@ -5874,13 +5988,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D218" t="s">
         <v>9</v>
@@ -5894,13 +6008,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D219" t="s">
         <v>9</v>
@@ -5914,13 +6028,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D220" t="s">
         <v>9</v>
@@ -5934,13 +6048,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D221" t="s">
         <v>9</v>
@@ -5954,13 +6068,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
@@ -5974,13 +6088,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D223" t="s">
         <v>9</v>
@@ -5994,13 +6108,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D224" t="s">
         <v>9</v>
@@ -6014,13 +6128,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D225" t="s">
         <v>9</v>
@@ -6034,13 +6148,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -6054,13 +6168,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B227">
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D227" t="s">
         <v>9</v>
@@ -6074,13 +6188,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -6094,13 +6208,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D229" t="s">
         <v>9</v>
@@ -6114,13 +6228,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -6134,13 +6248,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D231" t="s">
         <v>9</v>
@@ -6154,13 +6268,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -6174,13 +6288,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D233" t="s">
         <v>9</v>
@@ -6194,13 +6308,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -6214,13 +6328,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D235" t="s">
         <v>9</v>
@@ -6234,13 +6348,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
@@ -6254,13 +6368,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D237" t="s">
         <v>9</v>
@@ -6274,13 +6388,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D238" t="s">
         <v>9</v>
@@ -6294,13 +6408,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -6314,13 +6428,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -6334,13 +6448,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -6354,13 +6468,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="B242">
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D242" t="s">
         <v>9</v>
@@ -6374,13 +6488,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D243" t="s">
         <v>9</v>
@@ -6394,13 +6508,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D244" t="s">
         <v>9</v>
@@ -6414,13 +6528,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="D245" t="s">
         <v>9</v>
@@ -6434,13 +6548,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D246" t="s">
         <v>9</v>
@@ -6454,13 +6568,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
@@ -6474,13 +6588,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -6494,13 +6608,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D249" t="s">
         <v>9</v>
@@ -6514,13 +6628,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B250">
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D250" t="s">
         <v>9</v>
@@ -6534,21 +6648,1121 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>491</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>492</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>493</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252" t="s">
+        <v>494</v>
+      </c>
+      <c r="D252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>495</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>496</v>
+      </c>
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>497</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>498</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>499</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>500</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>501</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>502</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>504</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>506</v>
+      </c>
+      <c r="D258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>507</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251" t="s">
-        <v>507</v>
-      </c>
-      <c r="D251" t="s">
-        <v>9</v>
-      </c>
-      <c r="F251" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>508</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>510</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>511</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>512</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>513</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>514</v>
+      </c>
+      <c r="D262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>515</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>516</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>517</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>518</v>
+      </c>
+      <c r="D264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>519</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>520</v>
+      </c>
+      <c r="D265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>521</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>522</v>
+      </c>
+      <c r="D266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>523</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>524</v>
+      </c>
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>526</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>527</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>528</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>529</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>530</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>532</v>
+      </c>
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>534</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>535</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>536</v>
+      </c>
+      <c r="D273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>537</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>538</v>
+      </c>
+      <c r="D274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>539</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275" t="s">
+        <v>540</v>
+      </c>
+      <c r="D275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>541</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276" t="s">
+        <v>542</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>544</v>
+      </c>
+      <c r="D277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278" t="s">
+        <v>546</v>
+      </c>
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>548</v>
+      </c>
+      <c r="D279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280" t="s">
+        <v>550</v>
+      </c>
+      <c r="D280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>551</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>552</v>
+      </c>
+      <c r="D281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>553</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282" t="s">
+        <v>554</v>
+      </c>
+      <c r="D282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>555</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>556</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>557</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284" t="s">
+        <v>558</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>559</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>560</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>561</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286" t="s">
+        <v>562</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>564</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>565</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288" t="s">
+        <v>566</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>567</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289" t="s">
+        <v>568</v>
+      </c>
+      <c r="D289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>569</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290" t="s">
+        <v>570</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>571</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>572</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>573</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292" t="s">
+        <v>574</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>575</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>576</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>577</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>578</v>
+      </c>
+      <c r="D294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>579</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>580</v>
+      </c>
+      <c r="D295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>581</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>582</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>583</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297" t="s">
+        <v>584</v>
+      </c>
+      <c r="D297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>585</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>586</v>
+      </c>
+      <c r="D298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>587</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>588</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>589</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>590</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>591</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>592</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>593</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>594</v>
+      </c>
+      <c r="D302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>595</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303" t="s">
+        <v>596</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>597</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304" t="s">
+        <v>598</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>599</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305" t="s">
+        <v>599</v>
+      </c>
+      <c r="D305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>600</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>600</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
+++ b/hardis-report/xls/backup-updated-files-monitoring_myubiquity.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="788">
   <si>
     <t>File</t>
   </si>
@@ -49,55 +49,52 @@
     <t>📰</t>
   </si>
   <si>
-    <t>dataSourceObjects/Account_Home.dataSourceObject-meta.xml</t>
+    <t>dataSourceObjects/RecordType_Home.dataSourceObject-meta.xml</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>dataSourceObjects/UserRole_Home.dataSourceObject-meta.xml</t>
-  </si>
-  <si>
-    <t>dataStreamDefinitions/Account_Home.dataStreamDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>DataStreamDefinition Account_Home</t>
-  </si>
-  <si>
-    <t>dataStreamDefinitions/UserRole_Home.dataStreamDefinition-meta.xml</t>
-  </si>
-  <si>
-    <t>DataStreamDefinition UserRole_Home</t>
-  </si>
-  <si>
-    <t>datacategorygroups/Global_Categories.datacategorygroup-meta.xml</t>
-  </si>
-  <si>
-    <t>DataCategoryGroup Global_Categories</t>
-  </si>
-  <si>
-    <t>externalAIModels/HAWKING_ARTICLE_RECOMMENDATION_1762821641251.externalAIModel-meta.xml</t>
+    <t>dataStreamDefinitions/RecordType_Home.dataStreamDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>DataStreamDefinition RecordType_Home</t>
   </si>
   <si>
     <t>externalAIModels/HAWKING_ARTICLE_RECOMMENDATION_1763081746879.externalAIModel-meta.xml</t>
   </si>
   <si>
-    <t>externalAIModels/HAWKING_FAQ_1762907447221.externalAIModel-meta.xml</t>
-  </si>
-  <si>
-    <t>externalAIModels/HAWKING_FAQ_1763080674582.externalAIModel-meta.xml</t>
-  </si>
-  <si>
-    <t>externalAIModels/HAWKING_FAQ_1763080674628.externalAIModel-meta.xml</t>
+    <t>externalAIModels/HAWKING_ARTICLE_RECOMMENDATION_1763167487028.externalAIModel-meta.xml</t>
   </si>
   <si>
     <t>externalAIModels/HAWKING_FAQ_1763080901646.externalAIModel-meta.xml</t>
   </si>
   <si>
-    <t>flexipages/Default_Contact_Layout.flexipage-meta.xml</t>
-  </si>
-  <si>
-    <t>FlexiPage Default_Contact_Layout</t>
+    <t>externalAIModels/HAWKING_FAQ_1763167275759.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1763167342390.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>externalAIModels/HAWKING_FAQ_1763167342427.externalAIModel-meta.xml</t>
+  </si>
+  <si>
+    <t>flowDefinitions/Opportunity_Trigger_After_Send_Email_Alerts.flowDefinition-meta.xml</t>
+  </si>
+  <si>
+    <t>FlowDefinition Opportunity_Trigger_After_Send_Email_Alerts</t>
+  </si>
+  <si>
+    <t>flows/Opportunity_Trigger_After_Send_Email_Alerts.flow-meta.xml</t>
+  </si>
+  <si>
+    <t>Flow Opportunity_Trigger_After_Send_Email_Alerts</t>
+  </si>
+  <si>
+    <t>layouts/Plan__c-401%28k%29 Plan Layout.layout-meta.xml</t>
+  </si>
+  <si>
+    <t>Layout Plan__c-401%28k%29 Plan Layout</t>
   </si>
   <si>
     <t>messagingChannels/Login_Help.messagingChannel-meta.xml</t>
@@ -124,10 +121,22 @@
     <t>MktDataTranObject Account_Home</t>
   </si>
   <si>
-    <t>mktDataTranObjects/UserRole_Home.mktDataTranObject-meta.xml</t>
-  </si>
-  <si>
-    <t>MktDataTranObject UserRole_Home</t>
+    <t>mktDataTranObjects/Case_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject Case_Home</t>
+  </si>
+  <si>
+    <t>mktDataTranObjects/RecordType_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject RecordType_Home</t>
+  </si>
+  <si>
+    <t>mktDataTranObjects/User_Home.mktDataTranObject-meta.xml</t>
+  </si>
+  <si>
+    <t>MktDataTranObject User_Home</t>
   </si>
   <si>
     <t>objectSourceTargetMaps/Account_Home_map_Account_Home_1763079822343.objectSourceTargetMap-meta.xml</t>
@@ -136,1030 +145,1588 @@
     <t>ObjectSourceTargetMap Account_Home_map_Account_Home_1763079822343</t>
   </si>
   <si>
-    <t>objectSourceTargetMaps/UserRole_Home_map_UserRole_Home_1763080258007.objectSourceTargetMap-meta.xml</t>
-  </si>
-  <si>
-    <t>ObjectSourceTargetMap UserRole_Home_map_UserRole_Home_1763080258007</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/Account_Home__dll.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject Account_Home__dll/Account_Home__dll</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/AccountNumber__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AccountNumber__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/AccountSource__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AccountSource__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Accounts_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Accounts_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ActivityMetricId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ActivityMetricId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ActivityMetricRollupId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ActivityMetricRollupId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/All_Traffic_Sources_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField All_Traffic_Sources_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/AnnualRevenue__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField AnnualRevenue__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Asset_Manager_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Asset_Manager_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Auto_Enrollment_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Auto_Enrollment_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BD_Parent_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BD_Parent_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BD_Type_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BD_Type_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingCity__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingCity__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingCountryCode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingCountryCode__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingCountry__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingCountry__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingGeocodeAccuracy__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingGeocodeAccuracy__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingLatitude__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingLatitude__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingLongitude__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingLongitude__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingPostalCode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingPostalCode__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingStateCode__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingStateCode__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingState__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingState__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/BillingStreet__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField BillingStreet__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Campaign_code_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Campaign_code_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ChannelProgramLevelName__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ChannelProgramLevelName__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ChannelProgramName__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ChannelProgramName__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Channel_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Channel_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Client_Support_Teams_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Client_Support_Teams_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Company_size_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Company_size_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Competitive_Summary_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Competitive_Summary_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ConnectionReceivedId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ConnectionReceivedId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ConnectionSentId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ConnectionSentId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/CreatedById__c.field-meta.xml</t>
+    <t>objectSourceTargetMaps/Case_Home_map_Case_Home_1762995942309.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap Case_Home_map_Case_Home_1762995942309</t>
+  </si>
+  <si>
+    <t>objectSourceTargetMaps/RecordType_Home_map_RecordType_Home_1763144916756.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap RecordType_Home_map_RecordType_Home_1763144916756</t>
+  </si>
+  <si>
+    <t>objectSourceTargetMaps/User_Home_map_User_Home_1740436896909.objectSourceTargetMap-meta.xml</t>
+  </si>
+  <si>
+    <t>ObjectSourceTargetMap User_Home_map_User_Home_1740436896909</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Account_ID_18_Char_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Account_ID_18_Char_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Advisory_Firm_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Advisory_Firm_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Amount_Due_on_Invoices_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Amount_Due_on_Invoices_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Billing_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Billing_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Broker_CRD_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Broker_CRD_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Business_Entity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Business_Entity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Business_Industry_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Business_Industry_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Business_Unit_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Business_Unit_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/CRD_Number_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CRD_Number_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/CSAT_Average_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField CSAT_Average_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Client_Sentiment_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_Sentiment_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Client_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Client_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/Count_of_Employees_Census_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Count_of_Employees_Census_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/X3_38_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField X3_38_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/of_Add_On_Products_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField of_Add_On_Products_c__c</t>
+  </si>
+  <si>
+    <t>objects/Account_Home__dll/fields/of_Current_Plans_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField of_Current_Plans_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Abandoned_Review_Result_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Abandoned_Review_Result_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Abandoned_Review_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Abandoned_Review_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Activity_Checkbox_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Activity_Checkbox_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Address_Name_Change_Child_Cases_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Address_Name_Change_Child_Cases_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Adjustment_Reason_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Adjustment_Reason_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Adjustment_Spreadsheet_Attached_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Adjustment_Spreadsheet_Attached_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Adjustment_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Adjustment_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Aged_Payroll_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Aged_Payroll_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Aged_Payroll_As_Of_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Aged_Payroll_As_Of_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Aged_Payroll_Check_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Aged_Payroll_Check_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Aged_Payroll_ID_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Aged_Payroll_ID_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Alert_Email_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Alert_Email_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/All_Fund_Change_Docs_Attached_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField All_Fund_Change_Docs_Attached_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Ancillary_Billing_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ancillary_Billing_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Approval_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Approval_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Asked_for_Referral_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asked_for_Referral_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Asked_for_Referral_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asked_for_Referral_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Asked_for_Review_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asked_for_Review_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Asked_for_Review_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Asked_for_Review_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/AssetId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField AssetId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Assign_Client_to_Existing_Portfolio_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Assign_Client_to_Existing_Portfolio_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Billing_ForceDist_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Billing_ForceDist_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Blackout_Start_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Blackout_Start_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Bounced_Sponsor_Trustee_Emails_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Bounced_Sponsor_Trustee_Emails_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Box_LOI_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Box_LOI_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Close_SLA_Met_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Close_SLA_Met_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Close_SLA_Violation_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Close_SLA_Violation_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Closed_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Closed_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Complexity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Complexity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Email_ForceDisto_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Email_ForceDisto_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_ID_18_Char_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_ID_18_Char_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Next_Steps_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Next_Steps_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Owner_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Owner_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Owner_Role_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Owner_Role_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Resolution_CSAT_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Resolution_CSAT_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_Team_New_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_Team_New_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Case_notes_new_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Case_notes_new_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Cases_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Cases_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Certified_Notice_Count_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Certified_Notice_Count_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Certified_Notice_Name_List_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Certified_Notice_Name_List_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Certified_Notice_Sent_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Certified_Notice_Sent_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Client_Sentiment_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Closed_Date_Delay_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Closed_Date_Delay_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Closed_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Closed_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Complaint_Tier_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Complaint_Tier_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Complaint_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Complaint_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Complex_Project_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Complex_Project_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Compliance_Review_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Compliance_Review_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Connected_Partner_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Connected_Partner_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Connected_to_Project_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Connected_to_Project_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Contact_Role_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contact_Role_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Control_2_4_1_Findings_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Control_2_4_1_Findings_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Control_2_4_1_Situation_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Control_2_4_1_Situation_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Control_2_4_1_Summary_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Control_2_4_1_Summary_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Correct_Plan_Year_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Correct_Plan_Year_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Created_By_Role_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Created_By_Role_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Current_Threshold_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Current_Threshold_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Custodian_Account_Id_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Custodian_Account_Id_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Custom_SLA_Active_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Custom_SLA_Active_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Dashes_to_add_Case_to_Subject_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Dashes_to_add_Case_to_Subject_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Date_Requested_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Date_Requested_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Days_Behind_On_Payroll_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Days_Behind_On_Payroll_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Days_Since_Last_Activity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Days_Since_Last_Activity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Document_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Document_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Dollar_Amount_of_Adjustment_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Dollar_Amount_of_Adjustment_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Eligible_for_Archive_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Eligible_for_Archive_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Enhancement_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enhancement_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Enhancement_System_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Enhancement_System_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/EntitlementId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField EntitlementId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Escalated_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Escalated_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Estimated_Due_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Estimated_Due_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/EvenOdd_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField EvenOdd_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Excess_Cash_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Excess_Cash_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Excess_Cash_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Excess_Cash_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Expected_Days_to_Close_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Expected_Days_to_Close_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/FPS_EIN_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FPS_EIN_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/FPS_Required_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField FPS_Required_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Feedback_Category_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Feedback_Category_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Final_Notice_Sent_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Final_Notice_Sent_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/First_Response_SLA_Met_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField First_Response_SLA_Met_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/First_Response_SLA_Violation_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField First_Response_SLA_Violation_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Follow_Up_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Follow_Up_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_Address_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_Address_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_Billing_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_Billing_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_CityStateZip_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_CityStateZip_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_Email_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_Email_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_Phone_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_Phone_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceDist_Plan_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceDist_Plan_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ForceOut_Threshold_Fee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ForceOut_Threshold_Fee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Force_Out_Count_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Force_Out_Count_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Force_Out_Name_List_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Force_Out_Name_List_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Force_Out_Threshold_Increase_Fee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Force_Out_Threshold_Increase_Fee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Forfeiture_Plan_Asset_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Forfeiture_Plan_Asset_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Full_Case_Archive_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Full_Case_Archive_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Fund_Change_Effective_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fund_Change_Effective_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Fund_List_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Fund_List_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Funding_Information_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Funding_Information_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Funds_Vetted_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Funds_Vetted_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Future_Review_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Future_Review_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Goal_Close_DT_Stamp_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Goal_Close_DT_Stamp_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Goal_Close_Formatted_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Goal_Close_Formatted_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Goal_FR_DT_Stamp_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Goal_FR_DT_Stamp_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Gross_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Gross_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Implementation_Owner_Full_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Implementation_Owner_Full_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Implementation_Owner_Phone_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Implementation_Owner_Phone_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Implementation_Owner_Title_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Implementation_Owner_Title_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Inquiry_Source_Team_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Inquiry_Source_Team_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Inquiry_Source_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Inquiry_Source_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsSelfServiceClosed__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsSelfServiceClosed__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsStopped__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsStopped__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/IsVisibleInSelfService__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsVisibleInSelfService__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Is_Ancillary_Billing_Needed_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Is_Ancillary_Billing_Needed_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Component_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Component_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_End_User_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_End_User_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Severity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Severity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Ticket_Number_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Ticket_Number_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/JIRA_Ticket_Owner_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField JIRA_Ticket_Owner_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Activity_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Activity_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Health_Check_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Health_Check_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Health_Check_Type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Health_Check_Type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Inbound_Activity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Inbound_Activity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Last_Outbound_Activity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Last_Outbound_Activity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Liquidate_Forfeitures_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Liquidate_Forfeitures_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/List_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField List_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/List_Source_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField List_Source_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Look_Up_Name_Count_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Look_Up_Name_Count_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Look_Up_Name_List_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Look_Up_Name_List_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Marketing_Stage_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Marketing_Stage_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Most_Recent_1099R_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Most_Recent_1099R_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Most_Recent_Payroll_Submitted_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Most_Recent_Payroll_Submitted_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Most_Recent_Payroll_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Most_Recent_Payroll_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Number_of_Child_Cases_Closed_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Number_of_Child_Cases_Closed_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Number_of_Child_Cases_Open_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Number_of_Child_Cases_Open_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Number_of_Participants_to_Adjust_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Number_of_Participants_to_Adjust_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Opportunity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Opportunity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Original_Check_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Original_Check_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Original_Close_Date_Time_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Original_Close_Date_Time_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Original_Plan_Year_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Original_Plan_Year_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Overnight_check_detail_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Overnight_check_detail_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Owner_s_Manager_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Owner_s_Manager_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Paradigm_Plan_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Paradigm_Plan_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Partner_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Partner_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Past_Due_5500_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Past_Due_5500_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Past_Due_Payroll_Survey_Link_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Past_Due_Payroll_Survey_Link_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Past_Due_Survey_Received_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Past_Due_Survey_Received_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Past_Due_Survey_Sent_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Past_Due_Survey_Sent_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Payroll_ID_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payroll_ID_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Payroll_Schedule_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Payroll_Schedule_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Person_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Person_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Plan07CNumber_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Plan07CNumber_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/PlanAccountNumber_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField PlanAccountNumber_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Plan_Payroll_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Plan_Payroll_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Plan_Value_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Plan_Value_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Plan_over_125_EEs_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Plan_over_125_EEs_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Portfolio_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Portfolio_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Preferred_Completion_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Preferred_Completion_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Primary_Audience_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Primary_Audience_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Priority_Service_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Priority_Service_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ProductId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ProductId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Project_Deliverable_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Project_Deliverable_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/QA_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField QA_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/RKO_Plan_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField RKO_Plan_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ROI_Touched_Case_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ROI_Touched_Case_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/RPC_Request_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField RPC_Request_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAmParticipant_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAmParticipant_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAm_Fee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAm_Fee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAm_Loan_type_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAm_Loan_type_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAm_Waiver_Reason_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAm_Waiver_Reason_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAm_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAm_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ReAm_confirm_timeline_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ReAm_confirm_timeline_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reference_Memo_Line_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reference_Memo_Line_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Address_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Address_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Custodian_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Custodian_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Fee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Fee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Method_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Method_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Payee_Wire_Info_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Payee_Wire_Info_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Reissue_Reason_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Reissue_Reason_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Request_Level_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Request_Level_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Requestor_s_Department_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Requestor_s_Department_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SMS_Opt_In_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SMS_Opt_In_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Sender_Role_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sender_Role_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ServiceContractId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ServiceContractId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Service_Option_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Service_Option_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SlaExitDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SlaExitDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SlaStartDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SlaStartDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/SourceId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SourceId__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Splited_From_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Splited_From_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/StopStartDate__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField StopStartDate__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Sub_Category_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Sub_Category_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Surface_to_Ubiquity_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Surface_to_Ubiquity_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Survey_Other_Response_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Survey_Other_Response_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Survey_Response_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Survey_Response_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Team_Member_Phone_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Team_Member_Phone_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Team_Member_Title_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Team_Member_Title_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Terminated_Sponsor_Trustee_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Terminated_Sponsor_Trustee_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_to_Action_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_to_Action_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_to_Resolve_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_to_Resolve_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Time_to_Respond_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Time_to_Respond_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Timezone_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Timezone_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Transition_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Transition_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Trigger_Milestones_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Trigger_Milestones_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Ubiquity_Admin_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Ubiquity_Admin_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Unique_Flow_Identifier_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unique_Flow_Identifier_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Unknown_Deposit_Amount_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unknown_Deposit_Amount_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Unknown_Deposit_Date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unknown_Deposit_Date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Unknown_Deposit_Name_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Unknown_Deposit_Name_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Work_Metric_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Work_Metric_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/X3_16_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField X3_16_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/Yearly_Hours_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Yearly_Hours_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/cdp_sys_record_currency__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField cdp_sys_record_currency__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/escalatedImg_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField escalatedImg_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_DE_Status_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_DE_Status_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_DE_Territory_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_DE_Territory_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Distribution_count_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Distribution_count_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Distribution_engine_details_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Distribution_engine_details_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Is_archived_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Is_archived_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Last_archive_date_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Last_archive_date_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/n2de_Source_queue_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField n2de_Source_queue_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/of_Activities_Emails_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField of_Activities_Emails_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/original_number_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField original_number_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/ref_Id_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField ref_Id_c__c</t>
+  </si>
+  <si>
+    <t>objects/Case_Home__dll/fields/simplesurvey_Survey_Sent_c__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField simplesurvey_Survey_Sent_c__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/RecordType_Home__dll.object-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomObject RecordType_Home__dll/RecordType_Home__dll</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/BusinessProcessId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField BusinessProcessId__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/CreatedById__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField CreatedById__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/CreatedDate__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/CreatedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField CreatedDate__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/Current_Plan_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Current_Plan_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Custodian_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Custodian_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Enrich_Status_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DOZISF_ZoomInfo_Enrich_Status_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_First_Updated_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DOZISF_ZoomInfo_First_Updated_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Id_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DOZISF_ZoomInfo_Id_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_InboxAI_ID_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DOZISF_ZoomInfo_InboxAI_ID_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DOZISF_ZoomInfo_Last_Updated_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DOZISF_ZoomInfo_Last_Updated_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField DataSourceObject__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/DataSource__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/DataSource__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField DataSource__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/Date_last_shopped_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Date_last_shopped_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Description__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/Description__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Description__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/DesiredPlanStartDate_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DesiredPlanStartDate_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Employer_Identification_Number_EIN_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Employer_Identification_Number_EIN_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Fax__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Fax__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Fund_List_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Fund_List_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/GA_Client_ID_Formula_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField GA_Client_ID_Formula_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/How_did_you_hear_about_us_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField How_did_you_hear_about_us_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/How_did_you_hear_about_us_details_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField How_did_you_hear_about_us_details_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Id__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/DeveloperName__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField DeveloperName__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/Id__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Id__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/Industry__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Industry__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Investment_selection_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Investment_selection_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Investments_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Investments_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/IsCustomerPortal__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsCustomerPortal__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/IsDeleted__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsDeleted__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/IsPartner__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsPartner__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/IsPriorityRecord__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField IsPriorityRecord__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/JigsawCompanyId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField JigsawCompanyId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Jigsaw__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Jigsaw__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/IsActive__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField IsActive__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField KQ_Id__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/Knows_Rep_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Knows_Rep_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/LID_LinkedIn_Company_Id_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LID_LinkedIn_Company_Id_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/LastActivityDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LastActivityDate__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastModifiedById__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField LastModifiedDate__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/LastReferencedDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LastReferencedDate__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/LastViewedDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField LastViewedDate__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/MasterRecordId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField MasterRecordId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Message_from_Lead_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Message_from_Lead_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Multiple_Business_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Multiple_Business_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Name__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/Name__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField Name__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/New_Comp_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField New_Comp_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/NumberOfEmployees__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField NumberOfEmployees__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Ongoing_Service_Issues_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Ongoing_Service_Issues_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Other_Payroll_Provider_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Other_Payroll_Provider_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Other_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Other_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/OwnerId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField OwnerId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/PCRAAnnualFee_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PCRAAnnualFee_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/ParentId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ParentId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Partner_Integration_Type_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Partner_Integration_Type_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/PayPartner_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PayPartner_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Payroll_Provider_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Payroll_Provider_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Payroll_Submission_Type_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Payroll_Submission_Type_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Payroll_partner_notes_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Payroll_partner_notes_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Phone__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Phone__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/PhotoUrl__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PhotoUrl__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Priority_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Priority_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/RecordTypeId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField RecordTypeId__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Record_Keeping_System_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Record_Keeping_System_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Relationship_Manager_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Relationship_Manager_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Revenue_Share_Option_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Revenue_Share_Option_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Safe_Harbor_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Safe_Harbor_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Sales_Notes_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Sales_Notes_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Service_Option_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Service_Option_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Setup_fee_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Setup_fee_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/NamespacePrefix__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField NamespacePrefix__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField SfdcOrganizationId__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/SicDesc__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SicDesc__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Sic__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Sic__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Software_Vendor_Payroll_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Software_Vendor_Payroll_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/SourceSystemIdentifier__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SourceSystemIdentifier__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/SpecialFees_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField SpecialFees_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Strategic_Partner_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Strategic_Partner_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/SobjectType__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField SobjectType__c</t>
+  </si>
+  <si>
+    <t>objects/RecordType_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField SystemModstamp__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/Timeframe_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Timeframe_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/TimezoneDELETE_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField TimezoneDELETE_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Type__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Type__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/TypeofBusiness_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField TypeofBusiness_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Volume_Level_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Volume_Level_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/Website__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Website__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/affectlayer_AffectLayer_Notes_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField affectlayer_AffectLayer_Notes_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/affectlayer_IsCreatedByChorusZI_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField affectlayer_IsCreatedByChorusZI_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
+    <t>objects/RecordType_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
   </si>
   <si>
     <t>CustomField cdp_sys_SourceVersion__c</t>
   </si>
   <si>
-    <t>objects/Account_Home__dll/fields/cdp_sys_record_currency__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField cdp_sys_record_currency__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Browser_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Browser_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_City_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_City_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Country_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Country_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Device_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Device_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Campaign_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Campaign_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Channel_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Channel_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Content_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Content_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Landing_Page_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Landing_Page_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Medium_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Medium_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Referrer_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Referrer_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Source_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Source_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_First_Click_Term_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_First_Click_Term_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_GCLID_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_GCLID_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Google_Analytics_Client_ID_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Google_Analytics_Client_ID_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Google_Analytics_Link_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Google_Analytics_Link_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_IP_Address_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_IP_Address_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Campaign_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Campaign_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Channel_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Channel_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Content_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Content_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Landing_Page_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Landing_Page_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Medium_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Medium_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Referrer_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Referrer_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Source_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Source_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Last_Click_Term_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Last_Click_Term_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Latitude_from_IP_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Latitude_from_IP_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Location_approx_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Location_approx_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Longitude_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Longitude_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Number_of_Website_Visits_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Number_of_Website_Visits_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Operating_System_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Operating_System_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Pages_visited_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Pages_visited_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Time_Spent_on_Website_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Time_Spent_on_Website_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Time_Spent_on_Website_formul__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Time_Spent_on_Website_formul__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/gaconnector_Time_Zone_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField gaconnector_Time_Zone_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/x1stbilldate_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField x1stbilldate_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/x401kProvider_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField x401kProvider_c__c</t>
-  </si>
-  <si>
-    <t>objects/Account_Home__dll/fields/zzCONVERSIONFEE_c__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField zzCONVERSIONFEE_c__c</t>
-  </si>
-  <si>
-    <t>objects/Knowledge__kav/listViews/published_articles.listView-meta.xml</t>
-  </si>
-  <si>
-    <t>ListView published_articles</t>
-  </si>
-  <si>
-    <t>objects/Partner_Partner_Association__c/fields/Owner__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField Owner__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/UserRole_Home__dll.object-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomObject UserRole_Home__dll/UserRole_Home__dll</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/CaseAccessForAccountOwner__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField CaseAccessForAccountOwner__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/ContactAccessForAccountOwner__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ContactAccessForAccountOwner__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/DataSourceObject__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/DataSource__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/DeveloperName__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField DeveloperName__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/ForecastUserId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ForecastUserId__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/KQ_Id__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/LastModifiedById__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/LastModifiedDate__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/MayForecastManagerShare__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField MayForecastManagerShare__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/Name__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/ParentRoleId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField ParentRoleId__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/PortalAccountId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PortalAccountId__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/PortalAccountOwnerId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PortalAccountOwnerId__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/PortalRole__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PortalRole__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/PortalType__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField PortalType__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/RollupDescription__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>CustomField RollupDescription__c</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/SfdcOrganizationId__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/SystemModstamp__c.field-meta.xml</t>
-  </si>
-  <si>
-    <t>objects/UserRole_Home__dll/fields/cdp_sys_SourceVersion__c.field-meta.xml</t>
+    <t>objects/User_Home__dll/fields/Name__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>objects/User_Home__dll/fields/UserRoleId__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField UserRoleId__c</t>
+  </si>
+  <si>
+    <t>objects/User_Home__dll/fields/Username__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Username__c</t>
+  </si>
+  <si>
+    <t>objects/simplesurvey__Survey__c/fields/Contact_Email__c.field-meta.xml</t>
+  </si>
+  <si>
+    <t>CustomField Contact_Email__c</t>
+  </si>
+  <si>
+    <t>permissionsets/sfdcInternalInt__sfdc_a360_sfcrm_data_extract.permissionset-meta.xml</t>
+  </si>
+  <si>
+    <t>PermissionSet sfdcInternalInt__sfdc_a360_sfcrm_data_extract</t>
   </si>
   <si>
     <t>permissionsets/sfdcInternalInt__sfdc_slack.permissionset-meta.xml</t>
@@ -1682,12 +2249,6 @@
   </si>
   <si>
     <t>Profile myubiquity Profile</t>
-  </si>
-  <si>
-    <t>settings/EAC.settings-meta.xml</t>
-  </si>
-  <si>
-    <t>Settings EAC</t>
   </si>
   <si>
     <t>siteDotComSites/Help_Center1.site</t>
@@ -2190,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G395"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="99" customWidth="1"/>
+    <col min="1" max="1" width="103" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="86" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -2269,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -2280,13 +2841,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -2303,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -2314,13 +2878,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2334,16 +2898,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2354,13 +2915,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -2371,16 +2932,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2391,13 +2949,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2408,13 +2969,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2427,11 +2991,14 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2442,13 +3009,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -2462,13 +3029,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -2482,13 +3049,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -2502,13 +3069,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -2522,13 +3089,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -2539,13 +3109,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2556,13 +3126,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2573,13 +3146,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2590,13 +3166,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2607,13 +3186,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2624,13 +3203,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2641,13 +3223,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -2658,13 +3240,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2675,13 +3257,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -2692,13 +3274,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -2709,13 +3291,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -2726,13 +3308,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -2743,13 +3325,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -2760,13 +3342,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -2777,13 +3359,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2794,13 +3376,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -2811,13 +3393,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -2828,13 +3410,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2845,13 +3427,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -2862,13 +3444,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -2879,13 +3461,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -2896,13 +3478,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -2913,13 +3495,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2930,13 +3512,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2947,13 +3529,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -2964,13 +3546,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -2981,13 +3563,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2998,13 +3580,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3015,13 +3597,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -3032,13 +3614,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3049,13 +3631,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -3066,13 +3648,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -3083,13 +3665,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -3100,13 +3682,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -3117,13 +3699,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3134,13 +3716,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3151,13 +3733,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3168,13 +3750,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3185,13 +3767,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -3202,13 +3784,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -3219,13 +3801,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -3236,13 +3818,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -3253,13 +3835,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -3270,13 +3852,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -3287,13 +3869,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -3304,13 +3886,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -3321,13 +3903,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -3338,13 +3920,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -3355,13 +3937,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -3372,13 +3954,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3389,13 +3971,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -3406,13 +3988,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3423,13 +4005,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -3440,13 +4022,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -3457,13 +4039,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -3474,13 +4056,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -3491,13 +4073,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -3508,13 +4090,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -3525,13 +4107,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -3542,13 +4124,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -3559,13 +4141,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -3576,13 +4158,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -3593,13 +4175,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -3610,13 +4192,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -5159,14 +5741,11 @@
       <c r="A173" t="s">
         <v>345</v>
       </c>
-      <c r="B173">
-        <v>0</v>
+      <c r="B173" t="s">
+        <v>13</v>
       </c>
       <c r="C173" t="s">
         <v>346</v>
-      </c>
-      <c r="D173" t="s">
-        <v>9</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -5251,7 +5830,7 @@
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -5262,13 +5841,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>126</v>
+        <v>358</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -5279,13 +5858,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -5296,13 +5875,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -5313,13 +5892,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>146</v>
+        <v>364</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -5330,13 +5909,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>366</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -5347,13 +5926,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>174</v>
+        <v>368</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -5364,13 +5943,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -5381,13 +5960,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -5398,13 +5977,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B187" t="s">
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="F187" t="s">
         <v>10</v>
@@ -5415,13 +5994,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -5432,13 +6011,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B189" t="s">
         <v>13</v>
       </c>
       <c r="C189" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -5449,13 +6028,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -5466,13 +6045,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -5483,13 +6062,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -5500,13 +6079,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B193" t="s">
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F193" t="s">
         <v>10</v>
@@ -5517,13 +6096,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>238</v>
+        <v>388</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -5534,13 +6113,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B195" t="s">
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>252</v>
+        <v>390</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -5551,13 +6130,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
         <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -5568,16 +6147,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>383</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
+        <v>393</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
       </c>
       <c r="C197" t="s">
-        <v>384</v>
-      </c>
-      <c r="D197" t="s">
-        <v>9</v>
+        <v>394</v>
       </c>
       <c r="F197" t="s">
         <v>10</v>
@@ -5588,16 +6164,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>385</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
+        <v>395</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>386</v>
-      </c>
-      <c r="D198" t="s">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="F198" t="s">
         <v>10</v>
@@ -5608,16 +6181,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>387</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>388</v>
-      </c>
-      <c r="D199" t="s">
-        <v>9</v>
+        <v>398</v>
       </c>
       <c r="F199" t="s">
         <v>10</v>
@@ -5628,16 +6198,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>389</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>390</v>
-      </c>
-      <c r="D200" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="F200" t="s">
         <v>10</v>
@@ -5648,16 +6215,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>391</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
+        <v>401</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>392</v>
-      </c>
-      <c r="D201" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="F201" t="s">
         <v>10</v>
@@ -5668,16 +6232,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>393</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
+        <v>403</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
       </c>
       <c r="C202" t="s">
-        <v>394</v>
-      </c>
-      <c r="D202" t="s">
-        <v>9</v>
+        <v>404</v>
       </c>
       <c r="F202" t="s">
         <v>10</v>
@@ -5688,16 +6249,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>395</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
+        <v>405</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
-      </c>
-      <c r="D203" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="F203" t="s">
         <v>10</v>
@@ -5708,16 +6266,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>397</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
+        <v>407</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>398</v>
-      </c>
-      <c r="D204" t="s">
-        <v>9</v>
+        <v>408</v>
       </c>
       <c r="F204" t="s">
         <v>10</v>
@@ -5728,16 +6283,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>399</v>
-      </c>
-      <c r="B205">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>400</v>
-      </c>
-      <c r="D205" t="s">
-        <v>9</v>
+        <v>410</v>
       </c>
       <c r="F205" t="s">
         <v>10</v>
@@ -5748,16 +6300,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>401</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
+        <v>411</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>402</v>
-      </c>
-      <c r="D206" t="s">
-        <v>9</v>
+        <v>412</v>
       </c>
       <c r="F206" t="s">
         <v>10</v>
@@ -5768,16 +6317,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>403</v>
-      </c>
-      <c r="B207">
-        <v>0</v>
+        <v>413</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>404</v>
-      </c>
-      <c r="D207" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
       <c r="F207" t="s">
         <v>10</v>
@@ -5788,16 +6334,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>405</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
+        <v>415</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
-      </c>
-      <c r="D208" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="F208" t="s">
         <v>10</v>
@@ -5808,16 +6351,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>407</v>
-      </c>
-      <c r="B209">
-        <v>0</v>
+        <v>417</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>408</v>
-      </c>
-      <c r="D209" t="s">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="F209" t="s">
         <v>10</v>
@@ -5828,16 +6368,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>409</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
+        <v>419</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
       </c>
       <c r="C210" t="s">
-        <v>410</v>
-      </c>
-      <c r="D210" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="F210" t="s">
         <v>10</v>
@@ -5848,16 +6385,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>411</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
+        <v>421</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>412</v>
-      </c>
-      <c r="D211" t="s">
-        <v>9</v>
+        <v>422</v>
       </c>
       <c r="F211" t="s">
         <v>10</v>
@@ -5868,16 +6402,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>413</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
+        <v>423</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>414</v>
-      </c>
-      <c r="D212" t="s">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="F212" t="s">
         <v>10</v>
@@ -5888,16 +6419,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>415</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
+        <v>425</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>416</v>
-      </c>
-      <c r="D213" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="F213" t="s">
         <v>10</v>
@@ -5908,16 +6436,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>417</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
       </c>
       <c r="C214" t="s">
-        <v>418</v>
-      </c>
-      <c r="D214" t="s">
-        <v>9</v>
+        <v>428</v>
       </c>
       <c r="F214" t="s">
         <v>10</v>
@@ -5928,16 +6453,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
       </c>
       <c r="C215" t="s">
-        <v>420</v>
-      </c>
-      <c r="D215" t="s">
-        <v>9</v>
+        <v>430</v>
       </c>
       <c r="F215" t="s">
         <v>10</v>
@@ -5948,16 +6470,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>421</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>422</v>
-      </c>
-      <c r="D216" t="s">
-        <v>9</v>
+        <v>432</v>
       </c>
       <c r="F216" t="s">
         <v>10</v>
@@ -5968,16 +6487,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>423</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
+        <v>433</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>424</v>
-      </c>
-      <c r="D217" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -5988,16 +6504,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>425</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
+        <v>435</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>426</v>
-      </c>
-      <c r="D218" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -6008,16 +6521,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>427</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
+        <v>437</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>428</v>
-      </c>
-      <c r="D219" t="s">
-        <v>9</v>
+        <v>438</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -6028,16 +6538,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>429</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
+        <v>439</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
       </c>
       <c r="C220" t="s">
-        <v>430</v>
-      </c>
-      <c r="D220" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="F220" t="s">
         <v>10</v>
@@ -6048,16 +6555,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>431</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
+        <v>441</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>432</v>
-      </c>
-      <c r="D221" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="F221" t="s">
         <v>10</v>
@@ -6068,16 +6572,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>433</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
+        <v>443</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>434</v>
-      </c>
-      <c r="D222" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="F222" t="s">
         <v>10</v>
@@ -6088,16 +6589,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>435</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>436</v>
-      </c>
-      <c r="D223" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -6108,16 +6606,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>437</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
+        <v>447</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>438</v>
-      </c>
-      <c r="D224" t="s">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="F224" t="s">
         <v>10</v>
@@ -6128,16 +6623,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>439</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>440</v>
-      </c>
-      <c r="D225" t="s">
-        <v>9</v>
+        <v>450</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -6148,16 +6640,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>441</v>
-      </c>
-      <c r="B226">
-        <v>0</v>
+        <v>451</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>442</v>
-      </c>
-      <c r="D226" t="s">
-        <v>9</v>
+        <v>452</v>
       </c>
       <c r="F226" t="s">
         <v>10</v>
@@ -6168,16 +6657,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>443</v>
-      </c>
-      <c r="B227">
-        <v>0</v>
+        <v>453</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>444</v>
-      </c>
-      <c r="D227" t="s">
-        <v>9</v>
+        <v>454</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -6188,16 +6674,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>445</v>
-      </c>
-      <c r="B228">
-        <v>0</v>
+        <v>455</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>446</v>
-      </c>
-      <c r="D228" t="s">
-        <v>9</v>
+        <v>456</v>
       </c>
       <c r="F228" t="s">
         <v>10</v>
@@ -6208,16 +6691,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>447</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
+        <v>457</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>448</v>
-      </c>
-      <c r="D229" t="s">
-        <v>9</v>
+        <v>458</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -6228,16 +6708,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
+        <v>459</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>450</v>
-      </c>
-      <c r="D230" t="s">
-        <v>9</v>
+        <v>460</v>
       </c>
       <c r="F230" t="s">
         <v>10</v>
@@ -6248,16 +6725,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>451</v>
-      </c>
-      <c r="B231">
-        <v>0</v>
+        <v>461</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>452</v>
-      </c>
-      <c r="D231" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="F231" t="s">
         <v>10</v>
@@ -6268,16 +6742,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>453</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
+        <v>463</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>454</v>
-      </c>
-      <c r="D232" t="s">
-        <v>9</v>
+        <v>464</v>
       </c>
       <c r="F232" t="s">
         <v>10</v>
@@ -6288,16 +6759,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>455</v>
-      </c>
-      <c r="B233">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>456</v>
-      </c>
-      <c r="D233" t="s">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="F233" t="s">
         <v>10</v>
@@ -6308,16 +6776,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>457</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>458</v>
-      </c>
-      <c r="D234" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="F234" t="s">
         <v>10</v>
@@ -6328,16 +6793,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>459</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
+        <v>469</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>460</v>
-      </c>
-      <c r="D235" t="s">
-        <v>9</v>
+        <v>470</v>
       </c>
       <c r="F235" t="s">
         <v>10</v>
@@ -6348,16 +6810,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>461</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>462</v>
-      </c>
-      <c r="D236" t="s">
-        <v>9</v>
+        <v>472</v>
       </c>
       <c r="F236" t="s">
         <v>10</v>
@@ -6368,16 +6827,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>463</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>464</v>
-      </c>
-      <c r="D237" t="s">
-        <v>9</v>
+        <v>474</v>
       </c>
       <c r="F237" t="s">
         <v>10</v>
@@ -6388,16 +6844,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>465</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
+        <v>475</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>466</v>
-      </c>
-      <c r="D238" t="s">
-        <v>9</v>
+        <v>476</v>
       </c>
       <c r="F238" t="s">
         <v>10</v>
@@ -6408,16 +6861,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>467</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>468</v>
-      </c>
-      <c r="D239" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="F239" t="s">
         <v>10</v>
@@ -6428,16 +6878,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>469</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>470</v>
-      </c>
-      <c r="D240" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="F240" t="s">
         <v>10</v>
@@ -6448,16 +6895,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>471</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
+        <v>481</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>472</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
+        <v>482</v>
       </c>
       <c r="F241" t="s">
         <v>10</v>
@@ -6468,16 +6912,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>473</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
+        <v>483</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>474</v>
-      </c>
-      <c r="D242" t="s">
-        <v>9</v>
+        <v>484</v>
       </c>
       <c r="F242" t="s">
         <v>10</v>
@@ -6488,16 +6929,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>475</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
+        <v>485</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>476</v>
-      </c>
-      <c r="D243" t="s">
-        <v>9</v>
+        <v>486</v>
       </c>
       <c r="F243" t="s">
         <v>10</v>
@@ -6508,16 +6946,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>477</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
+        <v>487</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>478</v>
-      </c>
-      <c r="D244" t="s">
-        <v>9</v>
+        <v>488</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -6528,16 +6963,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>479</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>480</v>
-      </c>
-      <c r="D245" t="s">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -6548,16 +6980,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>481</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
+        <v>491</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>482</v>
-      </c>
-      <c r="D246" t="s">
-        <v>9</v>
+        <v>492</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -6568,16 +6997,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>483</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
+        <v>493</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>484</v>
-      </c>
-      <c r="D247" t="s">
-        <v>9</v>
+        <v>494</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -6588,16 +7014,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>485</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
+        <v>495</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>486</v>
-      </c>
-      <c r="D248" t="s">
-        <v>9</v>
+        <v>496</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -6608,16 +7031,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>487</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
+        <v>497</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>488</v>
-      </c>
-      <c r="D249" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -6628,16 +7048,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>489</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
+        <v>499</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>490</v>
-      </c>
-      <c r="D250" t="s">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -6648,16 +7065,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>491</v>
-      </c>
-      <c r="B251">
-        <v>0</v>
+        <v>501</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>492</v>
-      </c>
-      <c r="D251" t="s">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -6668,16 +7082,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>493</v>
-      </c>
-      <c r="B252">
-        <v>0</v>
+        <v>503</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>494</v>
-      </c>
-      <c r="D252" t="s">
-        <v>9</v>
+        <v>504</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -6688,16 +7099,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>495</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>496</v>
-      </c>
-      <c r="D253" t="s">
-        <v>9</v>
+        <v>506</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -6708,16 +7116,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>497</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
+        <v>507</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>498</v>
-      </c>
-      <c r="D254" t="s">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -6728,16 +7133,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>499</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
+        <v>509</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>500</v>
-      </c>
-      <c r="D255" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -6748,16 +7150,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>501</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
+        <v>511</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>502</v>
-      </c>
-      <c r="D256" t="s">
-        <v>9</v>
+        <v>512</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -6768,16 +7167,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>503</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>504</v>
-      </c>
-      <c r="D257" t="s">
-        <v>9</v>
+        <v>514</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -6788,16 +7184,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>505</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
+        <v>515</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>506</v>
-      </c>
-      <c r="D258" t="s">
-        <v>9</v>
+        <v>516</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -6808,16 +7201,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>507</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
+        <v>517</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
       </c>
       <c r="C259" t="s">
-        <v>508</v>
-      </c>
-      <c r="D259" t="s">
-        <v>9</v>
+        <v>518</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -6828,16 +7218,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>509</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
+        <v>519</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>510</v>
-      </c>
-      <c r="D260" t="s">
-        <v>9</v>
+        <v>520</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -6848,16 +7235,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>511</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
+        <v>521</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>512</v>
-      </c>
-      <c r="D261" t="s">
-        <v>9</v>
+        <v>522</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -6868,16 +7252,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>513</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
+        <v>523</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>514</v>
-      </c>
-      <c r="D262" t="s">
-        <v>9</v>
+        <v>524</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -6888,16 +7269,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>515</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
+        <v>525</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
       </c>
       <c r="C263" t="s">
-        <v>516</v>
-      </c>
-      <c r="D263" t="s">
-        <v>9</v>
+        <v>526</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -6908,16 +7286,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>517</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
+        <v>527</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
       </c>
       <c r="C264" t="s">
-        <v>518</v>
-      </c>
-      <c r="D264" t="s">
-        <v>9</v>
+        <v>528</v>
       </c>
       <c r="F264" t="s">
         <v>10</v>
@@ -6928,16 +7303,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>519</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
+        <v>529</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>520</v>
-      </c>
-      <c r="D265" t="s">
-        <v>9</v>
+        <v>530</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -6948,16 +7320,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>521</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
       </c>
       <c r="C266" t="s">
-        <v>522</v>
-      </c>
-      <c r="D266" t="s">
-        <v>9</v>
+        <v>532</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -6968,16 +7337,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>523</v>
-      </c>
-      <c r="B267">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
       </c>
       <c r="C267" t="s">
-        <v>524</v>
-      </c>
-      <c r="D267" t="s">
-        <v>9</v>
+        <v>534</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -6988,16 +7354,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>525</v>
-      </c>
-      <c r="B268">
-        <v>0</v>
+        <v>535</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
       </c>
       <c r="C268" t="s">
-        <v>526</v>
-      </c>
-      <c r="D268" t="s">
-        <v>9</v>
+        <v>536</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -7008,16 +7371,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>527</v>
-      </c>
-      <c r="B269">
-        <v>0</v>
+        <v>537</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>528</v>
-      </c>
-      <c r="D269" t="s">
-        <v>9</v>
+        <v>538</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -7028,16 +7388,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>529</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
+        <v>539</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>530</v>
-      </c>
-      <c r="D270" t="s">
-        <v>9</v>
+        <v>540</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -7048,16 +7405,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>531</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
+        <v>541</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>532</v>
-      </c>
-      <c r="D271" t="s">
-        <v>9</v>
+        <v>542</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -7068,16 +7422,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>533</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
+        <v>543</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>534</v>
-      </c>
-      <c r="D272" t="s">
-        <v>9</v>
+        <v>544</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -7088,16 +7439,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>535</v>
-      </c>
-      <c r="B273">
-        <v>0</v>
+        <v>545</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
       </c>
       <c r="C273" t="s">
-        <v>536</v>
-      </c>
-      <c r="D273" t="s">
-        <v>9</v>
+        <v>546</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -7108,16 +7456,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>537</v>
-      </c>
-      <c r="B274">
-        <v>0</v>
+        <v>547</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>538</v>
-      </c>
-      <c r="D274" t="s">
-        <v>9</v>
+        <v>548</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -7128,16 +7473,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>539</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
+        <v>549</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>540</v>
-      </c>
-      <c r="D275" t="s">
-        <v>9</v>
+        <v>550</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -7148,16 +7490,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>541</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>542</v>
-      </c>
-      <c r="D276" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -7168,16 +7507,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>543</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="B277" t="s">
+        <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>544</v>
-      </c>
-      <c r="D277" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -7188,16 +7524,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>545</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
+        <v>555</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>546</v>
-      </c>
-      <c r="D278" t="s">
-        <v>9</v>
+        <v>556</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -7208,16 +7541,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>547</v>
-      </c>
-      <c r="B279">
-        <v>0</v>
+        <v>557</v>
+      </c>
+      <c r="B279" t="s">
+        <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>548</v>
-      </c>
-      <c r="D279" t="s">
-        <v>9</v>
+        <v>558</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -7228,16 +7558,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>549</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>550</v>
-      </c>
-      <c r="D280" t="s">
-        <v>9</v>
+        <v>560</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -7248,16 +7575,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>551</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
+        <v>561</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>552</v>
-      </c>
-      <c r="D281" t="s">
-        <v>9</v>
+        <v>562</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -7268,16 +7592,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>553</v>
-      </c>
-      <c r="B282">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>554</v>
-      </c>
-      <c r="D282" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -7288,16 +7609,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>555</v>
-      </c>
-      <c r="B283">
-        <v>0</v>
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>556</v>
-      </c>
-      <c r="D283" t="s">
-        <v>9</v>
+        <v>565</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -7308,16 +7626,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>557</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
+        <v>566</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>558</v>
-      </c>
-      <c r="D284" t="s">
-        <v>9</v>
+        <v>567</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -7328,16 +7643,13 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>559</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>560</v>
-      </c>
-      <c r="D285" t="s">
-        <v>9</v>
+        <v>569</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -7348,13 +7660,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D286" t="s">
         <v>9</v>
@@ -7368,13 +7680,13 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D287" t="s">
         <v>9</v>
@@ -7388,13 +7700,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
       <c r="C288" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -7408,13 +7720,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
       <c r="C289" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D289" t="s">
         <v>9</v>
@@ -7428,13 +7740,13 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D290" t="s">
         <v>9</v>
@@ -7448,13 +7760,13 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
       <c r="C291" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D291" t="s">
         <v>9</v>
@@ -7468,13 +7780,13 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
       <c r="C292" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -7488,13 +7800,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
       <c r="C293" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D293" t="s">
         <v>9</v>
@@ -7508,13 +7820,13 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -7528,13 +7840,13 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D295" t="s">
         <v>9</v>
@@ -7548,13 +7860,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="D296" t="s">
         <v>9</v>
@@ -7568,13 +7880,13 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
       <c r="C297" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D297" t="s">
         <v>9</v>
@@ -7588,13 +7900,13 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="D298" t="s">
         <v>9</v>
@@ -7608,13 +7920,13 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="D299" t="s">
         <v>9</v>
@@ -7628,13 +7940,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
       <c r="C300" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D300" t="s">
         <v>9</v>
@@ -7648,13 +7960,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
       <c r="C301" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D301" t="s">
         <v>9</v>
@@ -7668,13 +7980,13 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B302">
         <v>0</v>
       </c>
       <c r="C302" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D302" t="s">
         <v>9</v>
@@ -7688,13 +8000,13 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="D303" t="s">
         <v>9</v>
@@ -7708,13 +8020,13 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="D304" t="s">
         <v>9</v>
@@ -7728,13 +8040,13 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D305" t="s">
         <v>9</v>
@@ -7748,13 +8060,13 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D306" t="s">
         <v>9</v>
@@ -7763,6 +8075,1786 @@
         <v>10</v>
       </c>
       <c r="G306" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>613</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>615</v>
+      </c>
+      <c r="D308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>617</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>619</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>621</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>623</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>625</v>
+      </c>
+      <c r="D313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>627</v>
+      </c>
+      <c r="D314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>629</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>631</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>633</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318" t="s">
+        <v>635</v>
+      </c>
+      <c r="D318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>637</v>
+      </c>
+      <c r="D319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320" t="s">
+        <v>639</v>
+      </c>
+      <c r="D320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321" t="s">
+        <v>641</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>643</v>
+      </c>
+      <c r="D322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323" t="s">
+        <v>645</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>647</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>649</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>651</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>653</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>655</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329" t="s">
+        <v>657</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>659</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>661</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>663</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>665</v>
+      </c>
+      <c r="D333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334" t="s">
+        <v>667</v>
+      </c>
+      <c r="D334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>669</v>
+      </c>
+      <c r="D335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>671</v>
+      </c>
+      <c r="D336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F336" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>673</v>
+      </c>
+      <c r="D337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>675</v>
+      </c>
+      <c r="D338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>677</v>
+      </c>
+      <c r="D339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F339" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340" t="s">
+        <v>679</v>
+      </c>
+      <c r="D340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341" t="s">
+        <v>681</v>
+      </c>
+      <c r="D341" t="s">
+        <v>9</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>683</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>685</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F343" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>687</v>
+      </c>
+      <c r="D344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>689</v>
+      </c>
+      <c r="D345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>691</v>
+      </c>
+      <c r="D346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347" t="s">
+        <v>693</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>695</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>696</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349" t="s">
+        <v>697</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350" t="s">
+        <v>699</v>
+      </c>
+      <c r="D350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>701</v>
+      </c>
+      <c r="D351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352" t="s">
+        <v>703</v>
+      </c>
+      <c r="D352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353" t="s">
+        <v>705</v>
+      </c>
+      <c r="D353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>707</v>
+      </c>
+      <c r="D354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355" t="s">
+        <v>709</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356" t="s">
+        <v>711</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>712</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>713</v>
+      </c>
+      <c r="D357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>715</v>
+      </c>
+      <c r="D358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>716</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>717</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>719</v>
+      </c>
+      <c r="D360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>721</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>722</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>723</v>
+      </c>
+      <c r="D362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>725</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>727</v>
+      </c>
+      <c r="D364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>728</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>729</v>
+      </c>
+      <c r="D365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>730</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>731</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>732</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>733</v>
+      </c>
+      <c r="D367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>735</v>
+      </c>
+      <c r="D368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>736</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>737</v>
+      </c>
+      <c r="D369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>739</v>
+      </c>
+      <c r="D370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>741</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>743</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372" t="s">
+        <v>10</v>
+      </c>
+      <c r="G372" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>745</v>
+      </c>
+      <c r="D373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>746</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>747</v>
+      </c>
+      <c r="D374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>748</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>749</v>
+      </c>
+      <c r="D375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>750</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>751</v>
+      </c>
+      <c r="D376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>752</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>753</v>
+      </c>
+      <c r="D377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>754</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>755</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>757</v>
+      </c>
+      <c r="D379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>759</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>760</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>761</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>762</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>763</v>
+      </c>
+      <c r="D382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F382" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>764</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>765</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>767</v>
+      </c>
+      <c r="D384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F384" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>768</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>769</v>
+      </c>
+      <c r="D385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>770</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>771</v>
+      </c>
+      <c r="D386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F386" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>772</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>773</v>
+      </c>
+      <c r="D387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>774</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>775</v>
+      </c>
+      <c r="D388" t="s">
+        <v>9</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>776</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>777</v>
+      </c>
+      <c r="D389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F389" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>778</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
+        <v>779</v>
+      </c>
+      <c r="D390" t="s">
+        <v>9</v>
+      </c>
+      <c r="F390" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>780</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391" t="s">
+        <v>781</v>
+      </c>
+      <c r="D391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F391" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>782</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392" t="s">
+        <v>783</v>
+      </c>
+      <c r="D392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F392" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>784</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393" t="s">
+        <v>785</v>
+      </c>
+      <c r="D393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>786</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394" t="s">
+        <v>786</v>
+      </c>
+      <c r="D394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F394" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>787</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395" t="s">
+        <v>787</v>
+      </c>
+      <c r="D395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F395" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395" t="s">
         <v>11</v>
       </c>
     </row>
